--- a/AAII_Financials/Quarterly/UEEC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UEEC_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Quarterly/UEEC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UEEC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>UEEC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,85 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -758,69 +769,87 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>100</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="R8" s="3">
         <v>200</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>0</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
         <v>100</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>100</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -830,32 +859,32 @@
       <c r="E10" s="3">
         <v>0</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="3">
-        <v>-100</v>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>300</v>
-      </c>
-      <c r="L10" s="3">
-        <v>100</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
-        <v>200</v>
       </c>
       <c r="O10" s="3">
         <v>100</v>
@@ -863,8 +892,17 @@
       <c r="P10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3">
+        <v>200</v>
+      </c>
+      <c r="R10" s="3">
+        <v>100</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,31 +919,34 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="G12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
+      <c r="H12" s="3">
+        <v>200</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>100</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>4</v>
@@ -925,8 +966,17 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,16 +1019,25 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -993,28 +1052,37 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>3600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1125,17 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,52 +1149,64 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E17" s="3">
         <v>600</v>
       </c>
       <c r="F17" s="3">
-        <v>3000</v>
+        <v>6100</v>
       </c>
       <c r="G17" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="H17" s="3">
+        <v>600</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>4000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
-      </c>
-      <c r="M17" s="3">
-        <v>200</v>
-      </c>
-      <c r="N17" s="3">
-        <v>200</v>
-      </c>
-      <c r="O17" s="3">
-        <v>300</v>
       </c>
       <c r="P17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>200</v>
+      </c>
+      <c r="R17" s="3">
+        <v>300</v>
+      </c>
+      <c r="S17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1128,31 +1217,31 @@
         <v>-600</v>
       </c>
       <c r="F18" s="3">
-        <v>-3000</v>
+        <v>-6100</v>
       </c>
       <c r="G18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="N18" s="3">
         <v>-700</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-900</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-700</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
@@ -1160,8 +1249,17 @@
       <c r="P18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1276,11 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,8 +1323,17 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1266,8 +1376,17 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1275,17 +1394,17 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>500</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
@@ -1310,52 +1429,70 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-700</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-900</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-700</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="Q23" s="3">
         <v>100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1535,17 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1588,123 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-700</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-900</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-700</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="Q26" s="3">
         <v>100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-700</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-900</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-700</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="Q27" s="3">
         <v>100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1747,17 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1800,17 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1853,17 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1906,17 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,52 +1959,70 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-700</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-900</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-700</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="Q33" s="3">
         <v>100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +2065,128 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-700</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-900</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-700</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="Q35" s="3">
         <v>100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2203,11 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2224,64 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,13 +2324,22 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -2073,34 +2351,43 @@
         <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
         <v>400</v>
       </c>
       <c r="L43" s="3">
+        <v>500</v>
+      </c>
+      <c r="M43" s="3">
+        <v>500</v>
+      </c>
+      <c r="N43" s="3">
+        <v>400</v>
+      </c>
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="R43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2117,122 +2404,149 @@
         <v>100</v>
       </c>
       <c r="H44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K44" s="3">
         <v>200</v>
       </c>
       <c r="L44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O44" s="3">
         <v>100</v>
       </c>
       <c r="P44" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>100</v>
+      </c>
+      <c r="R44" s="3">
+        <v>100</v>
+      </c>
+      <c r="S44" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H46" s="3">
         <v>600</v>
       </c>
       <c r="I46" s="3">
+        <v>100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>100</v>
+      </c>
+      <c r="K46" s="3">
+        <v>600</v>
+      </c>
+      <c r="L46" s="3">
         <v>900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
-      </c>
-      <c r="M46" s="3">
-        <v>300</v>
-      </c>
-      <c r="N46" s="3">
-        <v>300</v>
-      </c>
-      <c r="O46" s="3">
-        <v>200</v>
       </c>
       <c r="P46" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>300</v>
+      </c>
+      <c r="R46" s="3">
+        <v>200</v>
+      </c>
+      <c r="S46" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,31 +2589,40 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2319,8 +2642,17 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2695,17 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2748,17 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2801,17 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2854,17 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,8 +2907,17 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2548,43 +2925,52 @@
         <v>200</v>
       </c>
       <c r="E54" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="F54" s="3">
         <v>100</v>
       </c>
       <c r="G54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H54" s="3">
         <v>600</v>
       </c>
       <c r="I54" s="3">
+        <v>100</v>
+      </c>
+      <c r="J54" s="3">
+        <v>100</v>
+      </c>
+      <c r="K54" s="3">
+        <v>600</v>
+      </c>
+      <c r="L54" s="3">
         <v>900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>300</v>
-      </c>
-      <c r="M54" s="3">
-        <v>300</v>
-      </c>
-      <c r="N54" s="3">
-        <v>300</v>
-      </c>
-      <c r="O54" s="3">
-        <v>200</v>
       </c>
       <c r="P54" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>300</v>
+      </c>
+      <c r="R54" s="3">
+        <v>200</v>
+      </c>
+      <c r="S54" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2987,11 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,96 +3008,117 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>500</v>
+      </c>
+      <c r="F57" s="3">
+        <v>500</v>
+      </c>
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>300</v>
-      </c>
-      <c r="I57" s="3">
-        <v>300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>300</v>
       </c>
       <c r="L57" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M57" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N57" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="O57" s="3">
         <v>500</v>
       </c>
       <c r="P57" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>500</v>
+      </c>
+      <c r="R57" s="3">
+        <v>500</v>
+      </c>
+      <c r="S57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>400</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
+        <v>100</v>
+      </c>
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
         <v>400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="Q58" s="3">
         <v>400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="R58" s="3">
         <v>300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="S58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2716,34 +3126,34 @@
         <v>200</v>
       </c>
       <c r="E59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F59" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G59" s="3">
         <v>200</v>
       </c>
       <c r="H59" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I59" s="3">
         <v>300</v>
       </c>
       <c r="J59" s="3">
+        <v>200</v>
+      </c>
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
-        <v>100</v>
-      </c>
       <c r="M59" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O59" s="3">
         <v>100</v>
@@ -2751,52 +3161,70 @@
       <c r="P59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>100</v>
+      </c>
+      <c r="R59" s="3">
+        <v>100</v>
+      </c>
+      <c r="S59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E60" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="F60" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="G60" s="3">
         <v>500</v>
       </c>
       <c r="H60" s="3">
+        <v>500</v>
+      </c>
+      <c r="I60" s="3">
+        <v>600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>300</v>
+      </c>
+      <c r="K60" s="3">
         <v>900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>1100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>1100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>1100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>1000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="R60" s="3">
         <v>900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="S60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +3267,17 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3320,17 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3373,17 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3426,17 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3479,70 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E66" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="F66" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="G66" s="3">
         <v>500</v>
       </c>
       <c r="H66" s="3">
+        <v>500</v>
+      </c>
+      <c r="I66" s="3">
+        <v>600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>300</v>
+      </c>
+      <c r="K66" s="3">
         <v>900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>1100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>1100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>1100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>1000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="S66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3559,11 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3606,17 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3659,17 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3712,17 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3765,70 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="G72" s="3">
         <v>-23900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-23400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-22700</v>
       </c>
-      <c r="G72" s="3">
-        <v>-19700</v>
-      </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-19000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-18600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-17700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-13700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-13000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-12900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-12700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>-12800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3871,17 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3924,17 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3977,70 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G76" s="3">
         <v>-300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>-500</v>
       </c>
-      <c r="G76" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L76" s="3">
         <v>200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>-100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>-300</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-800</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-800</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-700</v>
       </c>
       <c r="O76" s="3">
         <v>-800</v>
       </c>
       <c r="P76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S76" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +4083,128 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-700</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-900</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-700</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="Q81" s="3">
         <v>100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4221,11 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4268,17 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4321,17 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4374,17 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4427,17 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4480,17 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4533,17 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3901,43 +4551,52 @@
         <v>-400</v>
       </c>
       <c r="E89" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="F89" s="3">
-        <v>-200</v>
+        <v>-1800</v>
       </c>
       <c r="G89" s="3">
         <v>-400</v>
       </c>
       <c r="H89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>-200</v>
       </c>
       <c r="P89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4613,11 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4660,17 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4713,17 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,13 +4766,22 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4100,14 +4789,14 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -4130,8 +4819,17 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4846,11 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4893,17 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4946,17 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4999,17 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +5052,70 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E100" s="3">
+        <v>500</v>
+      </c>
+      <c r="F100" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>1100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="J100" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
+        <v>500</v>
+      </c>
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
-      </c>
-      <c r="J100" s="3">
-        <v>300</v>
-      </c>
-      <c r="K100" s="3">
-        <v>500</v>
-      </c>
-      <c r="L100" s="3">
-        <v>200</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>200</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +5158,66 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="H102" s="3">
         <v>500</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UEEC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UEEC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>UEEC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -778,25 +782,28 @@
         <v>0</v>
       </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>300</v>
       </c>
-      <c r="O8" s="3">
-        <v>100</v>
-      </c>
       <c r="P8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R8" s="3">
         <v>200</v>
       </c>
       <c r="S8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -809,17 +816,17 @@
       <c r="F9" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -843,13 +850,16 @@
         <v>0</v>
       </c>
       <c r="R9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -862,17 +872,17 @@
       <c r="F10" s="3">
         <v>0</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -884,25 +894,28 @@
         <v>0</v>
       </c>
       <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3">
-        <v>100</v>
-      </c>
       <c r="P10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>200</v>
       </c>
-      <c r="R10" s="3">
-        <v>100</v>
-      </c>
       <c r="S10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,34 +935,35 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
       </c>
       <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
         <v>700</v>
       </c>
-      <c r="G12" s="3">
-        <v>100</v>
-      </c>
       <c r="H12" s="3">
+        <v>100</v>
+      </c>
+      <c r="I12" s="3">
         <v>200</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
       <c r="J12" s="3">
-        <v>100</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>100</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>4</v>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1039,8 +1059,8 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1052,23 +1072,23 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>3500</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>3600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,46 +1178,47 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>600</v>
+        <v>9100</v>
       </c>
       <c r="E17" s="3">
         <v>600</v>
       </c>
       <c r="F17" s="3">
+        <v>600</v>
+      </c>
+      <c r="G17" s="3">
         <v>6100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>500</v>
+      </c>
+      <c r="I17" s="3">
+        <v>600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K17" s="3">
+        <v>5400</v>
+      </c>
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
-        <v>600</v>
-      </c>
-      <c r="I17" s="3">
-        <v>2700</v>
-      </c>
-      <c r="J17" s="3">
-        <v>5400</v>
-      </c>
-      <c r="K17" s="3">
-        <v>400</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1000</v>
-      </c>
-      <c r="O17" s="3">
-        <v>200</v>
       </c>
       <c r="P17" s="3">
         <v>200</v>
@@ -1200,13 +1227,16 @@
         <v>200</v>
       </c>
       <c r="R17" s="3">
+        <v>200</v>
+      </c>
+      <c r="S17" s="3">
         <v>300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1217,49 +1247,52 @@
         <v>-600</v>
       </c>
       <c r="F18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G18" s="3">
         <v>-6100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-5400</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1385,29 +1422,32 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
@@ -1438,61 +1478,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
-        <v>-800</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-5400</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-700</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-100</v>
       </c>
       <c r="P23" s="3">
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="R23" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="S23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
-        <v>-800</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-5400</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-100</v>
       </c>
       <c r="P26" s="3">
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="R26" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="S26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
-        <v>-800</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-5400</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-100</v>
       </c>
       <c r="P27" s="3">
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="R27" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="S27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1968,61 +2038,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
-        <v>-800</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-5400</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-100</v>
       </c>
       <c r="P33" s="3">
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="R33" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="S33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
-        <v>-800</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-5400</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-100</v>
       </c>
       <c r="P35" s="3">
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="R35" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="S35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2242,34 +2329,34 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>300</v>
-      </c>
-      <c r="M41" s="3">
-        <v>200</v>
       </c>
       <c r="N41" s="3">
         <v>200</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,16 +2423,19 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2360,19 +2453,19 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>400</v>
-      </c>
-      <c r="L43" s="3">
-        <v>500</v>
       </c>
       <c r="M43" s="3">
         <v>500</v>
       </c>
       <c r="N43" s="3">
+        <v>500</v>
+      </c>
+      <c r="O43" s="3">
         <v>400</v>
-      </c>
-      <c r="O43" s="3">
-        <v>200</v>
       </c>
       <c r="P43" s="3">
         <v>200</v>
@@ -2381,13 +2474,16 @@
         <v>200</v>
       </c>
       <c r="R43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2413,7 +2509,7 @@
         <v>100</v>
       </c>
       <c r="K44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L44" s="3">
         <v>200</v>
@@ -2425,7 +2521,7 @@
         <v>200</v>
       </c>
       <c r="O44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P44" s="3">
         <v>100</v>
@@ -2437,10 +2533,13 @@
         <v>100</v>
       </c>
       <c r="S44" s="3">
+        <v>100</v>
+      </c>
+      <c r="T44" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2453,8 +2552,8 @@
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>4</v>
@@ -2462,11 +2561,11 @@
       <c r="I45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J45" s="3">
-        <v>100</v>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2477,8 +2576,8 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>4</v>
@@ -2486,14 +2585,17 @@
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2507,31 +2609,31 @@
         <v>100</v>
       </c>
       <c r="G46" s="3">
+        <v>100</v>
+      </c>
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3">
-        <v>100</v>
-      </c>
       <c r="J46" s="3">
         <v>100</v>
       </c>
       <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
         <v>600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>900</v>
-      </c>
-      <c r="M46" s="3">
-        <v>800</v>
       </c>
       <c r="N46" s="3">
         <v>800</v>
       </c>
       <c r="O46" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="P46" s="3">
         <v>300</v>
@@ -2540,13 +2642,16 @@
         <v>300</v>
       </c>
       <c r="R46" s="3">
+        <v>300</v>
+      </c>
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,16 +2703,19 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
         <v>100</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
+      <c r="E48" s="3">
+        <v>100</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>4</v>
@@ -2624,8 +2732,8 @@
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,8 +3039,11 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2925,37 +3051,37 @@
         <v>200</v>
       </c>
       <c r="E54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F54" s="3">
         <v>100</v>
       </c>
       <c r="G54" s="3">
+        <v>100</v>
+      </c>
+      <c r="H54" s="3">
         <v>200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>600</v>
       </c>
-      <c r="I54" s="3">
-        <v>100</v>
-      </c>
       <c r="J54" s="3">
         <v>100</v>
       </c>
       <c r="K54" s="3">
+        <v>100</v>
+      </c>
+      <c r="L54" s="3">
         <v>600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>900</v>
-      </c>
-      <c r="M54" s="3">
-        <v>800</v>
       </c>
       <c r="N54" s="3">
         <v>800</v>
       </c>
       <c r="O54" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="P54" s="3">
         <v>300</v>
@@ -2964,13 +3090,16 @@
         <v>300</v>
       </c>
       <c r="R54" s="3">
+        <v>300</v>
+      </c>
+      <c r="S54" s="3">
         <v>200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3020,16 +3151,16 @@
         <v>700</v>
       </c>
       <c r="E57" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="F57" s="3">
         <v>500</v>
       </c>
       <c r="G57" s="3">
+        <v>500</v>
+      </c>
+      <c r="H57" s="3">
         <v>300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>200</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
@@ -3038,7 +3169,7 @@
         <v>200</v>
       </c>
       <c r="K57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>300</v>
@@ -3050,7 +3181,7 @@
         <v>300</v>
       </c>
       <c r="O57" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P57" s="3">
         <v>500</v>
@@ -3062,36 +3193,39 @@
         <v>500</v>
       </c>
       <c r="S57" s="3">
+        <v>500</v>
+      </c>
+      <c r="T57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>400</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
       </c>
       <c r="K58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L58" s="3">
         <v>200</v>
@@ -3100,25 +3234,28 @@
         <v>200</v>
       </c>
       <c r="N58" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="O58" s="3">
         <v>500</v>
       </c>
       <c r="P58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q58" s="3">
         <v>400</v>
       </c>
       <c r="R58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3129,35 +3266,35 @@
         <v>200</v>
       </c>
       <c r="F59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G59" s="3">
+        <v>100</v>
+      </c>
+      <c r="H59" s="3">
         <v>200</v>
-      </c>
-      <c r="H59" s="3">
-        <v>300</v>
       </c>
       <c r="I59" s="3">
         <v>300</v>
       </c>
       <c r="J59" s="3">
+        <v>300</v>
+      </c>
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="O59" s="3">
-        <v>100</v>
-      </c>
       <c r="P59" s="3">
         <v>100</v>
       </c>
@@ -3170,43 +3307,46 @@
       <c r="S59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E60" s="3">
         <v>1000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1000</v>
-      </c>
-      <c r="G60" s="3">
-        <v>500</v>
       </c>
       <c r="H60" s="3">
         <v>500</v>
       </c>
       <c r="I60" s="3">
+        <v>500</v>
+      </c>
+      <c r="J60" s="3">
         <v>600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>900</v>
-      </c>
-      <c r="N60" s="3">
-        <v>1100</v>
       </c>
       <c r="O60" s="3">
         <v>1100</v>
@@ -3215,16 +3355,19 @@
         <v>1100</v>
       </c>
       <c r="Q60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R60" s="3">
         <v>1000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,43 +3643,46 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1000</v>
-      </c>
-      <c r="G66" s="3">
-        <v>500</v>
       </c>
       <c r="H66" s="3">
         <v>500</v>
       </c>
       <c r="I66" s="3">
+        <v>500</v>
+      </c>
+      <c r="J66" s="3">
         <v>600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>900</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1100</v>
       </c>
       <c r="O66" s="3">
         <v>1100</v>
@@ -3533,16 +3691,19 @@
         <v>1100</v>
       </c>
       <c r="Q66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R66" s="3">
         <v>1000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-27400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-26800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-26100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-23900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-23400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-22700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-19500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-19000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-18600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-17700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-13700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-13000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-12900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-12700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-12800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-300</v>
       </c>
-      <c r="H76" s="3">
-        <v>100</v>
-      </c>
       <c r="I76" s="3">
+        <v>100</v>
+      </c>
+      <c r="J76" s="3">
         <v>-500</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-200</v>
       </c>
       <c r="K76" s="3">
         <v>-200</v>
       </c>
       <c r="L76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M76" s="3">
         <v>200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-300</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-800</v>
       </c>
       <c r="P76" s="3">
         <v>-800</v>
       </c>
       <c r="Q76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="R76" s="3">
         <v>-700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
-        <v>-800</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-5400</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-100</v>
       </c>
       <c r="P81" s="3">
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="R81" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="S81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,34 +4756,37 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1300</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-300</v>
       </c>
       <c r="L89" s="3">
         <v>-300</v>
@@ -4578,25 +4795,28 @@
         <v>-300</v>
       </c>
       <c r="N89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="S89" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,31 +4836,32 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,22 +5002,25 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
@@ -4798,8 +5028,8 @@
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E100" s="3">
         <v>500</v>
       </c>
       <c r="F100" s="3">
+        <v>500</v>
+      </c>
+      <c r="G100" s="3">
         <v>1800</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>1100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1100</v>
       </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
       <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5182,34 +5434,34 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>500</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
         <v>-200</v>
       </c>
       <c r="L102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
         <v>100</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UEEC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UEEC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>UEEC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,96 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -785,33 +792,39 @@
         <v>0</v>
       </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>300</v>
       </c>
-      <c r="P8" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
       <c r="R8" s="3">
+        <v>100</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
         <v>200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>200</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -819,8 +832,8 @@
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
+      <c r="H9" s="3">
+        <v>0</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -831,8 +844,8 @@
       <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
+      <c r="L9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
@@ -853,21 +866,27 @@
         <v>0</v>
       </c>
       <c r="S9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3">
+        <v>100</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -875,8 +894,8 @@
       <c r="G10" s="3">
         <v>0</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
+      <c r="H10" s="3">
+        <v>0</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -887,8 +906,8 @@
       <c r="K10" s="3">
         <v>0</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
+      <c r="L10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
@@ -897,25 +916,31 @@
         <v>0</v>
       </c>
       <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="P10" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
       <c r="R10" s="3">
+        <v>100</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
         <v>200</v>
       </c>
-      <c r="S10" s="3">
-        <v>100</v>
-      </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3">
+        <v>100</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -945,31 +972,31 @@
         <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
         <v>700</v>
       </c>
-      <c r="H12" s="3">
-        <v>100</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
+        <v>100</v>
+      </c>
+      <c r="K12" s="3">
         <v>200</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
-        <v>100</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>4</v>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>100</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>4</v>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,25 +1081,31 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>300</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1075,26 +1114,26 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>3500</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>3600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1104,8 +1143,14 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,64 +1230,72 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F17" s="3">
         <v>9100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>6100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>5400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>4000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1000</v>
-      </c>
-      <c r="P17" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>200</v>
       </c>
       <c r="R17" s="3">
         <v>200</v>
       </c>
       <c r="S17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>300</v>
+      </c>
+      <c r="V17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,55 +1303,61 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-6100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-5400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-4000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1378,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1369,19 +1436,25 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-9100</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
@@ -1425,35 +1498,41 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>500</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
@@ -1481,64 +1560,76 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-9200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-6600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-5400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-4000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
-        <v>100</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
+        <v>100</v>
+      </c>
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1746,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-9200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-6600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-5400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-4000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
-        <v>100</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
+        <v>100</v>
+      </c>
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-9200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-6600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-5400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-4000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
-        <v>100</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
+        <v>100</v>
+      </c>
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2118,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2041,64 +2180,76 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-9200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-6600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-5400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-4000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
-        <v>100</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
+        <v>100</v>
+      </c>
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2304,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-9200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-6600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-5400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-4000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
-        <v>100</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
+        <v>100</v>
+      </c>
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,13 +2485,15 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2332,37 +2505,37 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
@@ -2370,8 +2543,14 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,22 +2605,28 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3">
+        <v>100</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -2456,34 +2641,40 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>400</v>
-      </c>
-      <c r="P43" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>200</v>
       </c>
       <c r="R43" s="3">
         <v>200</v>
       </c>
       <c r="S43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="U43" s="3">
+        <v>100</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2512,10 +2703,10 @@
         <v>100</v>
       </c>
       <c r="L44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N44" s="3">
         <v>200</v>
@@ -2524,10 +2715,10 @@
         <v>200</v>
       </c>
       <c r="P44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R44" s="3">
         <v>100</v>
@@ -2536,18 +2727,24 @@
         <v>100</v>
       </c>
       <c r="T44" s="3">
+        <v>100</v>
+      </c>
+      <c r="U44" s="3">
+        <v>100</v>
+      </c>
+      <c r="V44" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2555,23 +2752,23 @@
       <c r="G45" s="3">
         <v>0</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
-        <v>100</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2579,28 +2776,34 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
@@ -2612,46 +2815,52 @@
         <v>100</v>
       </c>
       <c r="H46" s="3">
+        <v>100</v>
+      </c>
+      <c r="I46" s="3">
+        <v>100</v>
+      </c>
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="J46" s="3">
-        <v>100</v>
-      </c>
-      <c r="K46" s="3">
-        <v>100</v>
-      </c>
       <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
+        <v>100</v>
+      </c>
+      <c r="N46" s="3">
         <v>600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>800</v>
-      </c>
-      <c r="P46" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>300</v>
       </c>
       <c r="R46" s="3">
         <v>300</v>
       </c>
       <c r="S46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T46" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>200</v>
+      </c>
+      <c r="V46" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2915,14 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2717,11 +2932,11 @@
       <c r="E48" s="3">
         <v>100</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
+      <c r="F48" s="3">
+        <v>100</v>
+      </c>
+      <c r="G48" s="3">
+        <v>100</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>4</v>
@@ -2735,11 +2950,11 @@
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2762,8 +2977,14 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3163,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3287,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E54" s="3">
         <v>200</v>
       </c>
       <c r="F54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H54" s="3">
+        <v>100</v>
+      </c>
+      <c r="I54" s="3">
+        <v>100</v>
+      </c>
+      <c r="J54" s="3">
         <v>200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>600</v>
       </c>
-      <c r="J54" s="3">
-        <v>100</v>
-      </c>
-      <c r="K54" s="3">
-        <v>100</v>
-      </c>
       <c r="L54" s="3">
+        <v>100</v>
+      </c>
+      <c r="M54" s="3">
+        <v>100</v>
+      </c>
+      <c r="N54" s="3">
         <v>600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>800</v>
-      </c>
-      <c r="P54" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>300</v>
       </c>
       <c r="R54" s="3">
         <v>300</v>
       </c>
       <c r="S54" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T54" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>200</v>
+      </c>
+      <c r="V54" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,40 +3401,42 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>400</v>
+      </c>
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
-      </c>
-      <c r="I57" s="3">
-        <v>200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
       </c>
       <c r="L57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>300</v>
@@ -3184,10 +3445,10 @@
         <v>300</v>
       </c>
       <c r="P57" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q57" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="R57" s="3">
         <v>500</v>
@@ -3196,71 +3457,83 @@
         <v>500</v>
       </c>
       <c r="T57" s="3">
+        <v>500</v>
+      </c>
+      <c r="U57" s="3">
+        <v>500</v>
+      </c>
+      <c r="V57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>600</v>
       </c>
-      <c r="E58" s="3">
-        <v>100</v>
-      </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G58" s="3">
+        <v>100</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>400</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N58" s="3">
         <v>200</v>
       </c>
       <c r="O58" s="3">
+        <v>200</v>
+      </c>
+      <c r="P58" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q58" s="3">
         <v>500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
         <v>200</v>
@@ -3269,25 +3542,25 @@
         <v>200</v>
       </c>
       <c r="G59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H59" s="3">
         <v>200</v>
       </c>
       <c r="I59" s="3">
+        <v>100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>200</v>
+      </c>
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>200</v>
-      </c>
-      <c r="L59" s="3">
-        <v>400</v>
-      </c>
-      <c r="M59" s="3">
-        <v>300</v>
       </c>
       <c r="N59" s="3">
         <v>400</v>
@@ -3296,10 +3569,10 @@
         <v>300</v>
       </c>
       <c r="P59" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="Q59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="R59" s="3">
         <v>100</v>
@@ -3310,64 +3583,76 @@
       <c r="T59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>100</v>
+      </c>
+      <c r="V59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F60" s="3">
         <v>1400</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F60" s="3">
-        <v>800</v>
       </c>
       <c r="G60" s="3">
         <v>1000</v>
       </c>
       <c r="H60" s="3">
+        <v>800</v>
+      </c>
+      <c r="I60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J60" s="3">
         <v>500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>300</v>
-      </c>
-      <c r="L60" s="3">
-        <v>900</v>
-      </c>
-      <c r="M60" s="3">
-        <v>800</v>
       </c>
       <c r="N60" s="3">
         <v>900</v>
       </c>
       <c r="O60" s="3">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="P60" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="Q60" s="3">
         <v>1100</v>
       </c>
       <c r="R60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T60" s="3">
         <v>1000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3707,14 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3769,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3955,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F66" s="3">
         <v>1400</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F66" s="3">
-        <v>800</v>
       </c>
       <c r="G66" s="3">
         <v>1000</v>
       </c>
       <c r="H66" s="3">
+        <v>800</v>
+      </c>
+      <c r="I66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J66" s="3">
         <v>500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>300</v>
-      </c>
-      <c r="L66" s="3">
-        <v>900</v>
-      </c>
-      <c r="M66" s="3">
-        <v>800</v>
       </c>
       <c r="N66" s="3">
         <v>900</v>
       </c>
       <c r="O66" s="3">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="P66" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="Q66" s="3">
         <v>1100</v>
       </c>
       <c r="R66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T66" s="3">
         <v>1000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-68900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-41800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-36700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-27400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-26800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-26100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-23900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-23400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-22700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-19500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-19000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-18600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-17700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-13700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-12900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-12700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-12800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-300</v>
       </c>
-      <c r="I76" s="3">
-        <v>100</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
+        <v>100</v>
+      </c>
+      <c r="L76" s="3">
         <v>-500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-800</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-700</v>
       </c>
       <c r="S76" s="3">
         <v>-800</v>
       </c>
       <c r="T76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="V76" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4661,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-9200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-6600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-5400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-4000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
-        <v>100</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
+        <v>100</v>
+      </c>
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5186,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1300</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-300</v>
       </c>
       <c r="N89" s="3">
         <v>-300</v>
       </c>
       <c r="O89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,19 +5276,21 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
@@ -4863,11 +5304,11 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -4893,8 +5334,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5458,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5014,28 +5473,28 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -5061,8 +5520,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5792,76 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>200</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1800</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>1100</v>
-      </c>
       <c r="J100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>1100</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M100" s="3">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="N100" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>500</v>
       </c>
       <c r="P100" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>500</v>
+      </c>
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
-        <v>100</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>100</v>
+      </c>
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,13 +5916,19 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -5437,42 +5940,48 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>500</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
       <c r="P102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UEEC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UEEC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>UEEC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -798,36 +802,39 @@
         <v>0</v>
       </c>
       <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
         <v>300</v>
       </c>
-      <c r="R8" s="3">
-        <v>100</v>
-      </c>
       <c r="S8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="U8" s="3">
         <v>200</v>
       </c>
       <c r="V8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -838,17 +845,17 @@
       <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
@@ -872,24 +879,27 @@
         <v>0</v>
       </c>
       <c r="U9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -900,17 +910,17 @@
       <c r="I10" s="3">
         <v>0</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
@@ -922,25 +932,28 @@
         <v>0</v>
       </c>
       <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>300</v>
       </c>
-      <c r="R10" s="3">
-        <v>100</v>
-      </c>
       <c r="S10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
         <v>200</v>
       </c>
-      <c r="U10" s="3">
-        <v>100</v>
-      </c>
       <c r="V10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -972,34 +986,34 @@
         <v>100</v>
       </c>
       <c r="E12" s="3">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3">
         <v>200</v>
       </c>
-      <c r="F12" s="3">
-        <v>100</v>
-      </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
       </c>
       <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
         <v>700</v>
       </c>
-      <c r="J12" s="3">
-        <v>100</v>
-      </c>
       <c r="K12" s="3">
+        <v>100</v>
+      </c>
+      <c r="L12" s="3">
         <v>200</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
       <c r="M12" s="3">
-        <v>100</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>100</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>4</v>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1096,19 +1116,19 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1120,23 +1140,23 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>3500</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>3600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>200</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,55 +1258,56 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E17" s="3">
         <v>26700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9100</v>
-      </c>
-      <c r="G17" s="3">
-        <v>600</v>
       </c>
       <c r="H17" s="3">
         <v>600</v>
       </c>
       <c r="I17" s="3">
+        <v>600</v>
+      </c>
+      <c r="J17" s="3">
         <v>6100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1000</v>
-      </c>
-      <c r="R17" s="3">
-        <v>200</v>
       </c>
       <c r="S17" s="3">
         <v>200</v>
@@ -1289,13 +1316,16 @@
         <v>200</v>
       </c>
       <c r="U17" s="3">
+        <v>200</v>
+      </c>
+      <c r="V17" s="3">
         <v>300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,61 +1333,64 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-4800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-9100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-600</v>
       </c>
       <c r="H18" s="3">
         <v>-600</v>
       </c>
       <c r="I18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J18" s="3">
         <v>-6100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,7 +1423,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1442,23 +1476,26 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
         <v>-4800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-9100</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1504,38 +1541,41 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3">
-        <v>100</v>
-      </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
@@ -1566,70 +1606,76 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-27000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-9200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-700</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-100</v>
       </c>
       <c r="S23" s="3">
         <v>-100</v>
       </c>
       <c r="T23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="U23" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="V23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-27000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-9200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-700</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-100</v>
       </c>
       <c r="S26" s="3">
         <v>-100</v>
       </c>
       <c r="T26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="U26" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="V26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-27000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-9200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-700</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-100</v>
       </c>
       <c r="S27" s="3">
         <v>-100</v>
       </c>
       <c r="T27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="U27" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="V27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2133,7 +2203,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2186,70 +2256,76 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-27000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-9200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-700</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-100</v>
       </c>
       <c r="S33" s="3">
         <v>-100</v>
       </c>
       <c r="T33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="U33" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="V33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-27000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-9200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-700</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-100</v>
       </c>
       <c r="S35" s="3">
         <v>-100</v>
       </c>
       <c r="T35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="U35" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="V35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,17 +2573,18 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
@@ -2511,34 +2598,34 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
         <v>300</v>
-      </c>
-      <c r="P41" s="3">
-        <v>200</v>
       </c>
       <c r="Q41" s="3">
         <v>200</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
         <v>0</v>
@@ -2549,8 +2636,11 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,16 +2701,19 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>100</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="3">
+        <v>100</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>4</v>
@@ -2628,8 +2721,8 @@
       <c r="G43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -2647,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>400</v>
-      </c>
-      <c r="O43" s="3">
-        <v>500</v>
       </c>
       <c r="P43" s="3">
         <v>500</v>
       </c>
       <c r="Q43" s="3">
+        <v>500</v>
+      </c>
+      <c r="R43" s="3">
         <v>400</v>
-      </c>
-      <c r="R43" s="3">
-        <v>200</v>
       </c>
       <c r="S43" s="3">
         <v>200</v>
@@ -2668,13 +2761,16 @@
         <v>200</v>
       </c>
       <c r="U43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2709,7 +2805,7 @@
         <v>100</v>
       </c>
       <c r="N44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O44" s="3">
         <v>200</v>
@@ -2721,7 +2817,7 @@
         <v>200</v>
       </c>
       <c r="R44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S44" s="3">
         <v>100</v>
@@ -2733,21 +2829,24 @@
         <v>100</v>
       </c>
       <c r="V44" s="3">
+        <v>100</v>
+      </c>
+      <c r="W44" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2758,8 +2857,8 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>4</v>
@@ -2767,11 +2866,11 @@
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M45" s="3">
-        <v>100</v>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2782,8 +2881,8 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
+      <c r="R45" s="3">
+        <v>0</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>4</v>
@@ -2791,23 +2890,26 @@
       <c r="T45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
+      <c r="U45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
-        <v>100</v>
-      </c>
       <c r="F46" s="3">
         <v>100</v>
       </c>
@@ -2821,31 +2923,31 @@
         <v>100</v>
       </c>
       <c r="J46" s="3">
+        <v>100</v>
+      </c>
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>600</v>
       </c>
-      <c r="L46" s="3">
-        <v>100</v>
-      </c>
       <c r="M46" s="3">
         <v>100</v>
       </c>
       <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
         <v>600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>900</v>
-      </c>
-      <c r="P46" s="3">
-        <v>800</v>
       </c>
       <c r="Q46" s="3">
         <v>800</v>
       </c>
       <c r="R46" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="S46" s="3">
         <v>300</v>
@@ -2854,13 +2956,16 @@
         <v>300</v>
       </c>
       <c r="U46" s="3">
+        <v>300</v>
+      </c>
+      <c r="V46" s="3">
         <v>200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2938,8 +3046,8 @@
       <c r="G48" s="3">
         <v>100</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
+      <c r="H48" s="3">
+        <v>100</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>4</v>
@@ -2956,8 +3064,8 @@
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,16 +3416,19 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>200</v>
+      </c>
+      <c r="E54" s="3">
         <v>400</v>
-      </c>
-      <c r="E54" s="3">
-        <v>200</v>
       </c>
       <c r="F54" s="3">
         <v>200</v>
@@ -3311,37 +3437,37 @@
         <v>200</v>
       </c>
       <c r="H54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I54" s="3">
         <v>100</v>
       </c>
       <c r="J54" s="3">
+        <v>100</v>
+      </c>
+      <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>600</v>
       </c>
-      <c r="L54" s="3">
-        <v>100</v>
-      </c>
       <c r="M54" s="3">
         <v>100</v>
       </c>
       <c r="N54" s="3">
+        <v>100</v>
+      </c>
+      <c r="O54" s="3">
         <v>600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>900</v>
-      </c>
-      <c r="P54" s="3">
-        <v>800</v>
       </c>
       <c r="Q54" s="3">
         <v>800</v>
       </c>
       <c r="R54" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="S54" s="3">
         <v>300</v>
@@ -3350,13 +3476,16 @@
         <v>300</v>
       </c>
       <c r="U54" s="3">
+        <v>300</v>
+      </c>
+      <c r="V54" s="3">
         <v>200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,34 +3533,35 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>400</v>
-      </c>
-      <c r="F57" s="3">
-        <v>700</v>
       </c>
       <c r="G57" s="3">
         <v>700</v>
       </c>
       <c r="H57" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="I57" s="3">
         <v>500</v>
       </c>
       <c r="J57" s="3">
+        <v>500</v>
+      </c>
+      <c r="K57" s="3">
         <v>300</v>
-      </c>
-      <c r="K57" s="3">
-        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
@@ -3439,7 +3570,7 @@
         <v>200</v>
       </c>
       <c r="N57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O57" s="3">
         <v>300</v>
@@ -3451,7 +3582,7 @@
         <v>300</v>
       </c>
       <c r="R57" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="S57" s="3">
         <v>500</v>
@@ -3463,10 +3594,13 @@
         <v>500</v>
       </c>
       <c r="V57" s="3">
+        <v>500</v>
+      </c>
+      <c r="W57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3474,34 +3608,34 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>600</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>400</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
       </c>
       <c r="N58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O58" s="3">
         <v>200</v>
@@ -3510,33 +3644,36 @@
         <v>200</v>
       </c>
       <c r="Q58" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="R58" s="3">
         <v>500</v>
       </c>
       <c r="S58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T58" s="3">
         <v>400</v>
       </c>
       <c r="U58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="V58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="E59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
         <v>200</v>
@@ -3548,35 +3685,35 @@
         <v>200</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J59" s="3">
+        <v>100</v>
+      </c>
+      <c r="K59" s="3">
         <v>200</v>
-      </c>
-      <c r="K59" s="3">
-        <v>300</v>
       </c>
       <c r="L59" s="3">
         <v>300</v>
       </c>
       <c r="M59" s="3">
+        <v>300</v>
+      </c>
+      <c r="N59" s="3">
         <v>200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>300</v>
       </c>
-      <c r="R59" s="3">
-        <v>100</v>
-      </c>
       <c r="S59" s="3">
         <v>100</v>
       </c>
@@ -3589,52 +3726,55 @@
       <c r="V59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E60" s="3">
         <v>400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1000</v>
-      </c>
-      <c r="J60" s="3">
-        <v>500</v>
       </c>
       <c r="K60" s="3">
         <v>500</v>
       </c>
       <c r="L60" s="3">
+        <v>500</v>
+      </c>
+      <c r="M60" s="3">
         <v>600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>900</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>1100</v>
       </c>
       <c r="R60" s="3">
         <v>1100</v>
@@ -3643,16 +3783,19 @@
         <v>1100</v>
       </c>
       <c r="T60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U60" s="3">
         <v>1000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,52 +4116,55 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E66" s="3">
         <v>400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1000</v>
-      </c>
-      <c r="J66" s="3">
-        <v>500</v>
       </c>
       <c r="K66" s="3">
         <v>500</v>
       </c>
       <c r="L66" s="3">
+        <v>500</v>
+      </c>
+      <c r="M66" s="3">
         <v>600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>900</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>1100</v>
       </c>
       <c r="R66" s="3">
         <v>1100</v>
@@ -4015,16 +4173,19 @@
         <v>1100</v>
       </c>
       <c r="T66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U66" s="3">
         <v>1000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-70200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-68900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-41800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-36700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-27400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-26800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-26100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-23900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-23400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-22700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-19500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-19000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-18600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-17700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-13700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-13000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-12900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-12700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-12800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E76" s="3">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-300</v>
       </c>
-      <c r="K76" s="3">
-        <v>100</v>
-      </c>
       <c r="L76" s="3">
+        <v>100</v>
+      </c>
+      <c r="M76" s="3">
         <v>-500</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-200</v>
       </c>
       <c r="N76" s="3">
         <v>-200</v>
       </c>
       <c r="O76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P76" s="3">
         <v>200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-300</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-800</v>
       </c>
       <c r="S76" s="3">
         <v>-800</v>
       </c>
       <c r="T76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="U76" s="3">
         <v>-700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-27000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-9200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-700</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-100</v>
       </c>
       <c r="S81" s="3">
         <v>-100</v>
       </c>
       <c r="T81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="U81" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="V81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,43 +5406,46 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
       </c>
       <c r="F89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1300</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-300</v>
       </c>
       <c r="O89" s="3">
         <v>-300</v>
@@ -5237,25 +5454,28 @@
         <v>-300</v>
       </c>
       <c r="Q89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-100</v>
       </c>
       <c r="T89" s="3">
         <v>-100</v>
       </c>
       <c r="U89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="V89" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,22 +5498,23 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
@@ -5310,8 +5531,8 @@
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5479,16 +5709,16 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
@@ -5496,8 +5726,8 @@
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>200</v>
       </c>
       <c r="F100" s="3">
+        <v>200</v>
+      </c>
+      <c r="G100" s="3">
         <v>300</v>
-      </c>
-      <c r="G100" s="3">
-        <v>500</v>
       </c>
       <c r="H100" s="3">
         <v>500</v>
       </c>
       <c r="I100" s="3">
+        <v>500</v>
+      </c>
+      <c r="J100" s="3">
         <v>1800</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>1100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1100</v>
       </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
       <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V100" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,16 +6171,19 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -5946,34 +6198,34 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>500</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
         <v>-200</v>
       </c>
       <c r="O102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
         <v>100</v>
       </c>
       <c r="S102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T102" s="3">
         <v>0</v>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UEEC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UEEC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>UEEC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -805,39 +809,42 @@
         <v>0</v>
       </c>
       <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>300</v>
       </c>
-      <c r="S8" s="3">
-        <v>100</v>
-      </c>
       <c r="T8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V8" s="3">
         <v>200</v>
       </c>
       <c r="W8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -848,17 +855,17 @@
       <c r="J9" s="3">
         <v>0</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
@@ -882,27 +889,30 @@
         <v>0</v>
       </c>
       <c r="V9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -913,17 +923,17 @@
       <c r="J10" s="3">
         <v>0</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O10" s="3">
         <v>0</v>
@@ -935,25 +945,28 @@
         <v>0</v>
       </c>
       <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>300</v>
       </c>
-      <c r="S10" s="3">
-        <v>100</v>
-      </c>
       <c r="T10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
         <v>200</v>
       </c>
-      <c r="V10" s="3">
-        <v>100</v>
-      </c>
       <c r="W10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,46 +990,47 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
       </c>
       <c r="F12" s="3">
+        <v>100</v>
+      </c>
+      <c r="G12" s="3">
         <v>200</v>
       </c>
-      <c r="G12" s="3">
-        <v>100</v>
-      </c>
       <c r="H12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
       </c>
       <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
         <v>700</v>
       </c>
-      <c r="K12" s="3">
-        <v>100</v>
-      </c>
       <c r="L12" s="3">
+        <v>100</v>
+      </c>
+      <c r="M12" s="3">
         <v>200</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
       <c r="N12" s="3">
-        <v>100</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>100</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>4</v>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1119,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1143,23 +1163,23 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>3500</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>3600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>200</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,58 +1285,59 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
         <v>1300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>26700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9100</v>
-      </c>
-      <c r="H17" s="3">
-        <v>600</v>
       </c>
       <c r="I17" s="3">
         <v>600</v>
       </c>
       <c r="J17" s="3">
+        <v>600</v>
+      </c>
+      <c r="K17" s="3">
         <v>6100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1000</v>
-      </c>
-      <c r="S17" s="3">
-        <v>200</v>
       </c>
       <c r="T17" s="3">
         <v>200</v>
@@ -1319,13 +1346,16 @@
         <v>200</v>
       </c>
       <c r="V17" s="3">
+        <v>200</v>
+      </c>
+      <c r="W17" s="3">
         <v>300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1333,64 +1363,67 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-26700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-9100</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-600</v>
       </c>
       <c r="I18" s="3">
         <v>-600</v>
       </c>
       <c r="J18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-6100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-4000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1423,11 +1457,11 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1479,8 +1513,11 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1490,15 +1527,15 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
         <v>-4800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-9100</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1544,8 +1581,11 @@
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1553,32 +1593,32 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>400</v>
       </c>
-      <c r="G22" s="3">
-        <v>100</v>
-      </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>500</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
@@ -1609,73 +1649,79 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-27000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-9200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-700</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-100</v>
       </c>
       <c r="T23" s="3">
         <v>-100</v>
       </c>
       <c r="U23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="V23" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="W23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-27000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-9200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-4000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-700</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-100</v>
       </c>
       <c r="T26" s="3">
         <v>-100</v>
       </c>
       <c r="U26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="V26" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="W26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-27000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-9200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-4000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-700</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-100</v>
       </c>
       <c r="T27" s="3">
         <v>-100</v>
       </c>
       <c r="U27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="V27" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="W27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2203,11 +2273,11 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2259,73 +2329,79 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-27000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-9200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-4000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-700</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-100</v>
       </c>
       <c r="T33" s="3">
         <v>-100</v>
       </c>
       <c r="U33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="V33" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="W33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-27000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-9200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-4000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-700</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-100</v>
       </c>
       <c r="T35" s="3">
         <v>-100</v>
       </c>
       <c r="U35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="V35" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="W35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,20 +2660,21 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
@@ -2601,34 +2688,34 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
         <v>300</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>200</v>
       </c>
       <c r="R41" s="3">
         <v>200</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U41" s="3">
         <v>0</v>
@@ -2639,8 +2726,11 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,19 +2794,22 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="3">
-        <v>100</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3">
+        <v>100</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>4</v>
@@ -2724,8 +2817,8 @@
       <c r="H43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -2743,19 +2836,19 @@
         <v>0</v>
       </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>400</v>
-      </c>
-      <c r="P43" s="3">
-        <v>500</v>
       </c>
       <c r="Q43" s="3">
         <v>500</v>
       </c>
       <c r="R43" s="3">
+        <v>500</v>
+      </c>
+      <c r="S43" s="3">
         <v>400</v>
-      </c>
-      <c r="S43" s="3">
-        <v>200</v>
       </c>
       <c r="T43" s="3">
         <v>200</v>
@@ -2764,13 +2857,16 @@
         <v>200</v>
       </c>
       <c r="V43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2808,7 +2904,7 @@
         <v>100</v>
       </c>
       <c r="O44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P44" s="3">
         <v>200</v>
@@ -2820,7 +2916,7 @@
         <v>200</v>
       </c>
       <c r="S44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T44" s="3">
         <v>100</v>
@@ -2832,10 +2928,13 @@
         <v>100</v>
       </c>
       <c r="W44" s="3">
+        <v>100</v>
+      </c>
+      <c r="X44" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2845,11 +2944,11 @@
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -2860,8 +2959,8 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>4</v>
@@ -2869,11 +2968,11 @@
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N45" s="3">
-        <v>100</v>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2884,8 +2983,8 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
+      <c r="S45" s="3">
+        <v>0</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>4</v>
@@ -2893,26 +2992,29 @@
       <c r="U45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
+      <c r="V45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
-        <v>100</v>
-      </c>
       <c r="G46" s="3">
         <v>100</v>
       </c>
@@ -2926,31 +3028,31 @@
         <v>100</v>
       </c>
       <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>600</v>
       </c>
-      <c r="M46" s="3">
-        <v>100</v>
-      </c>
       <c r="N46" s="3">
         <v>100</v>
       </c>
       <c r="O46" s="3">
+        <v>100</v>
+      </c>
+      <c r="P46" s="3">
         <v>600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>900</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>800</v>
       </c>
       <c r="R46" s="3">
         <v>800</v>
       </c>
       <c r="S46" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="T46" s="3">
         <v>300</v>
@@ -2959,13 +3061,16 @@
         <v>300</v>
       </c>
       <c r="V46" s="3">
+        <v>300</v>
+      </c>
+      <c r="W46" s="3">
         <v>200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3049,8 +3157,8 @@
       <c r="H48" s="3">
         <v>100</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
+      <c r="I48" s="3">
+        <v>100</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
@@ -3067,8 +3175,8 @@
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,19 +3542,22 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>300</v>
+      </c>
+      <c r="E54" s="3">
         <v>200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>400</v>
-      </c>
-      <c r="F54" s="3">
-        <v>200</v>
       </c>
       <c r="G54" s="3">
         <v>200</v>
@@ -3440,37 +3566,37 @@
         <v>200</v>
       </c>
       <c r="I54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J54" s="3">
         <v>100</v>
       </c>
       <c r="K54" s="3">
+        <v>100</v>
+      </c>
+      <c r="L54" s="3">
         <v>200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>600</v>
       </c>
-      <c r="M54" s="3">
-        <v>100</v>
-      </c>
       <c r="N54" s="3">
         <v>100</v>
       </c>
       <c r="O54" s="3">
+        <v>100</v>
+      </c>
+      <c r="P54" s="3">
         <v>600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>900</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>800</v>
       </c>
       <c r="R54" s="3">
         <v>800</v>
       </c>
       <c r="S54" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="T54" s="3">
         <v>300</v>
@@ -3479,13 +3605,16 @@
         <v>300</v>
       </c>
       <c r="V54" s="3">
+        <v>300</v>
+      </c>
+      <c r="W54" s="3">
         <v>200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,37 +3664,38 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
-      </c>
-      <c r="G57" s="3">
-        <v>700</v>
       </c>
       <c r="H57" s="3">
         <v>700</v>
       </c>
       <c r="I57" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="J57" s="3">
         <v>500</v>
       </c>
       <c r="K57" s="3">
+        <v>500</v>
+      </c>
+      <c r="L57" s="3">
         <v>300</v>
-      </c>
-      <c r="L57" s="3">
-        <v>200</v>
       </c>
       <c r="M57" s="3">
         <v>200</v>
@@ -3573,7 +3704,7 @@
         <v>200</v>
       </c>
       <c r="O57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>300</v>
@@ -3585,7 +3716,7 @@
         <v>300</v>
       </c>
       <c r="S57" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="T57" s="3">
         <v>500</v>
@@ -3597,10 +3728,13 @@
         <v>500</v>
       </c>
       <c r="W57" s="3">
+        <v>500</v>
+      </c>
+      <c r="X57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3611,34 +3745,34 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>600</v>
       </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>400</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
       <c r="M58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
       </c>
       <c r="O58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P58" s="3">
         <v>200</v>
@@ -3647,36 +3781,39 @@
         <v>200</v>
       </c>
       <c r="R58" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="S58" s="3">
         <v>500</v>
       </c>
       <c r="T58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="U58" s="3">
         <v>400</v>
       </c>
       <c r="V58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="W58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>400</v>
+      </c>
+      <c r="E59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3">
-        <v>100</v>
-      </c>
       <c r="F59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G59" s="3">
         <v>200</v>
@@ -3688,35 +3825,35 @@
         <v>200</v>
       </c>
       <c r="J59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K59" s="3">
+        <v>100</v>
+      </c>
+      <c r="L59" s="3">
         <v>200</v>
-      </c>
-      <c r="L59" s="3">
-        <v>300</v>
       </c>
       <c r="M59" s="3">
         <v>300</v>
       </c>
       <c r="N59" s="3">
+        <v>300</v>
+      </c>
+      <c r="O59" s="3">
         <v>200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>300</v>
       </c>
-      <c r="S59" s="3">
-        <v>100</v>
-      </c>
       <c r="T59" s="3">
         <v>100</v>
       </c>
@@ -3729,8 +3866,11 @@
       <c r="W59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3738,46 +3878,46 @@
         <v>1200</v>
       </c>
       <c r="E60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F60" s="3">
         <v>400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1000</v>
-      </c>
-      <c r="K60" s="3">
-        <v>500</v>
       </c>
       <c r="L60" s="3">
         <v>500</v>
       </c>
       <c r="M60" s="3">
+        <v>500</v>
+      </c>
+      <c r="N60" s="3">
         <v>600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>900</v>
-      </c>
-      <c r="R60" s="3">
-        <v>1100</v>
       </c>
       <c r="S60" s="3">
         <v>1100</v>
@@ -3786,16 +3926,19 @@
         <v>1100</v>
       </c>
       <c r="U60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V60" s="3">
         <v>1000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,8 +4274,11 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4128,46 +4286,46 @@
         <v>1200</v>
       </c>
       <c r="E66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F66" s="3">
         <v>400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1000</v>
-      </c>
-      <c r="K66" s="3">
-        <v>500</v>
       </c>
       <c r="L66" s="3">
         <v>500</v>
       </c>
       <c r="M66" s="3">
+        <v>500</v>
+      </c>
+      <c r="N66" s="3">
         <v>600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>900</v>
-      </c>
-      <c r="R66" s="3">
-        <v>1100</v>
       </c>
       <c r="S66" s="3">
         <v>1100</v>
@@ -4176,16 +4334,19 @@
         <v>1100</v>
       </c>
       <c r="U66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V66" s="3">
         <v>1000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-70900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-70200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-68900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-41800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-36700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-27400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-26800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-26100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-23900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-23400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-22700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-19500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-19000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-18600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-17700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-13700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-13000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-12900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-12700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-12800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1000</v>
       </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
       <c r="F76" s="3">
+        <v>0</v>
+      </c>
+      <c r="G76" s="3">
         <v>-1000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-300</v>
       </c>
-      <c r="L76" s="3">
-        <v>100</v>
-      </c>
       <c r="M76" s="3">
+        <v>100</v>
+      </c>
+      <c r="N76" s="3">
         <v>-500</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-200</v>
       </c>
       <c r="O76" s="3">
         <v>-200</v>
       </c>
       <c r="P76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q76" s="3">
         <v>200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-300</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-800</v>
       </c>
       <c r="T76" s="3">
         <v>-800</v>
       </c>
       <c r="U76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="V76" s="3">
         <v>-700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-27000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-9200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-4000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-700</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-100</v>
       </c>
       <c r="T81" s="3">
         <v>-100</v>
       </c>
       <c r="U81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="V81" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="W81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5418,37 +5635,37 @@
         <v>-200</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
       </c>
       <c r="G89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1300</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-300</v>
       </c>
       <c r="P89" s="3">
         <v>-300</v>
@@ -5457,25 +5674,28 @@
         <v>-300</v>
       </c>
       <c r="R89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-100</v>
       </c>
       <c r="U89" s="3">
         <v>-100</v>
       </c>
       <c r="V89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="W89" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5510,14 +5731,14 @@
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
@@ -5534,8 +5755,8 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5712,16 +5942,16 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
@@ -5729,8 +5959,8 @@
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
         <v>200</v>
       </c>
       <c r="G100" s="3">
+        <v>200</v>
+      </c>
+      <c r="H100" s="3">
         <v>300</v>
-      </c>
-      <c r="H100" s="3">
-        <v>500</v>
       </c>
       <c r="I100" s="3">
         <v>500</v>
       </c>
       <c r="J100" s="3">
+        <v>500</v>
+      </c>
+      <c r="K100" s="3">
         <v>1800</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>1100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1100</v>
       </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
       <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W100" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,19 +6423,22 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
@@ -6201,34 +6453,34 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>500</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
         <v>-200</v>
       </c>
       <c r="P102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
         <v>100</v>
       </c>
       <c r="T102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U102" s="3">
         <v>0</v>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UEEC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UEEC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
   <si>
     <t>UEEC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,107 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -812,25 +815,28 @@
         <v>0</v>
       </c>
       <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
         <v>300</v>
       </c>
-      <c r="T8" s="3">
-        <v>100</v>
-      </c>
       <c r="U8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="W8" s="3">
         <v>200</v>
       </c>
       <c r="X8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -840,14 +846,14 @@
       <c r="E9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -858,17 +864,17 @@
       <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
@@ -892,13 +898,16 @@
         <v>0</v>
       </c>
       <c r="W9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,14 +917,14 @@
       <c r="E10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -926,17 +935,17 @@
       <c r="K10" s="3">
         <v>0</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P10" s="3">
         <v>0</v>
@@ -948,25 +957,28 @@
         <v>0</v>
       </c>
       <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
         <v>300</v>
       </c>
-      <c r="T10" s="3">
-        <v>100</v>
-      </c>
       <c r="U10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
         <v>200</v>
       </c>
-      <c r="W10" s="3">
-        <v>100</v>
-      </c>
       <c r="X10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,49 +1003,50 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
         <v>100</v>
       </c>
       <c r="G12" s="3">
+        <v>100</v>
+      </c>
+      <c r="H12" s="3">
         <v>200</v>
       </c>
-      <c r="H12" s="3">
-        <v>100</v>
-      </c>
       <c r="I12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
       </c>
       <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
         <v>700</v>
       </c>
-      <c r="L12" s="3">
-        <v>100</v>
-      </c>
       <c r="M12" s="3">
+        <v>100</v>
+      </c>
+      <c r="N12" s="3">
         <v>200</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
       <c r="O12" s="3">
-        <v>100</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
+        <v>100</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>4</v>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,13 +1143,16 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1142,19 +1161,19 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1166,23 +1185,23 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>3500</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>3600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>200</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,61 +1311,62 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>26700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9100</v>
-      </c>
-      <c r="I17" s="3">
-        <v>600</v>
       </c>
       <c r="J17" s="3">
         <v>600</v>
       </c>
       <c r="K17" s="3">
+        <v>600</v>
+      </c>
+      <c r="L17" s="3">
         <v>6100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1000</v>
-      </c>
-      <c r="T17" s="3">
-        <v>200</v>
       </c>
       <c r="U17" s="3">
         <v>200</v>
@@ -1349,13 +1375,16 @@
         <v>200</v>
       </c>
       <c r="W17" s="3">
+        <v>200</v>
+      </c>
+      <c r="X17" s="3">
         <v>300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,67 +1392,70 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-26700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-9100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-600</v>
       </c>
       <c r="J18" s="3">
         <v>-600</v>
       </c>
       <c r="K18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L18" s="3">
         <v>-6100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-4000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
       <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
         <v>-100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1460,11 +1493,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1516,29 +1549,32 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-1300</v>
       </c>
       <c r="G21" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="H21" s="3">
         <v>-4800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-9100</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1584,8 +1620,11 @@
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1596,32 +1635,32 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3">
-        <v>100</v>
-      </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>500</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
@@ -1652,76 +1691,82 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-27000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-9200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-700</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-100</v>
       </c>
       <c r="U23" s="3">
         <v>-100</v>
       </c>
       <c r="V23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="W23" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="X23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-27000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-9200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-700</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-100</v>
       </c>
       <c r="U26" s="3">
         <v>-100</v>
       </c>
       <c r="V26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="W26" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="X26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-27000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-9200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-700</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-100</v>
       </c>
       <c r="U27" s="3">
         <v>-100</v>
       </c>
       <c r="V27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="W27" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="X27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2276,11 +2345,11 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2332,76 +2401,82 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-27000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-9200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-700</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-100</v>
       </c>
       <c r="U33" s="3">
         <v>-100</v>
       </c>
       <c r="V33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="W33" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="X33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-27000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-9200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-700</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-100</v>
       </c>
       <c r="U35" s="3">
         <v>-100</v>
       </c>
       <c r="V35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="W35" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="X35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,23 +2746,24 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
@@ -2691,34 +2777,34 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
         <v>300</v>
-      </c>
-      <c r="R41" s="3">
-        <v>200</v>
       </c>
       <c r="S41" s="3">
         <v>200</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V41" s="3">
         <v>0</v>
@@ -2729,8 +2815,11 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2886,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2808,11 +2900,11 @@
       <c r="E43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="3">
-        <v>100</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3">
+        <v>100</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
@@ -2820,8 +2912,8 @@
       <c r="I43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2839,19 +2931,19 @@
         <v>0</v>
       </c>
       <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
         <v>400</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>500</v>
       </c>
       <c r="R43" s="3">
         <v>500</v>
       </c>
       <c r="S43" s="3">
+        <v>500</v>
+      </c>
+      <c r="T43" s="3">
         <v>400</v>
-      </c>
-      <c r="T43" s="3">
-        <v>200</v>
       </c>
       <c r="U43" s="3">
         <v>200</v>
@@ -2860,18 +2952,21 @@
         <v>200</v>
       </c>
       <c r="W43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E44" s="3">
         <v>100</v>
@@ -2907,7 +3002,7 @@
         <v>100</v>
       </c>
       <c r="P44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q44" s="3">
         <v>200</v>
@@ -2919,7 +3014,7 @@
         <v>200</v>
       </c>
       <c r="T44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U44" s="3">
         <v>100</v>
@@ -2931,10 +3026,13 @@
         <v>100</v>
       </c>
       <c r="X44" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y44" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2947,11 +3045,11 @@
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -2962,8 +3060,8 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
@@ -2971,11 +3069,11 @@
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O45" s="3">
-        <v>100</v>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2986,8 +3084,8 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
+      <c r="T45" s="3">
+        <v>0</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>4</v>
@@ -2995,29 +3093,32 @@
       <c r="V45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W45" s="3">
-        <v>0</v>
+      <c r="W45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
-        <v>100</v>
-      </c>
       <c r="F46" s="3">
+        <v>100</v>
+      </c>
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
-        <v>100</v>
-      </c>
       <c r="H46" s="3">
         <v>100</v>
       </c>
@@ -3031,31 +3132,31 @@
         <v>100</v>
       </c>
       <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>600</v>
       </c>
-      <c r="N46" s="3">
-        <v>100</v>
-      </c>
       <c r="O46" s="3">
         <v>100</v>
       </c>
       <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
         <v>600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>900</v>
-      </c>
-      <c r="R46" s="3">
-        <v>800</v>
       </c>
       <c r="S46" s="3">
         <v>800</v>
       </c>
       <c r="T46" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="U46" s="3">
         <v>300</v>
@@ -3064,13 +3165,16 @@
         <v>300</v>
       </c>
       <c r="W46" s="3">
+        <v>300</v>
+      </c>
+      <c r="X46" s="3">
         <v>200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,13 +3241,16 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
         <v>100</v>
@@ -3160,8 +3267,8 @@
       <c r="I48" s="3">
         <v>100</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
+      <c r="J48" s="3">
+        <v>100</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>4</v>
@@ -3178,8 +3285,8 @@
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -3205,8 +3312,11 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,22 +3667,25 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
         <v>300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>400</v>
-      </c>
-      <c r="G54" s="3">
-        <v>200</v>
       </c>
       <c r="H54" s="3">
         <v>200</v>
@@ -3569,37 +3694,37 @@
         <v>200</v>
       </c>
       <c r="J54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K54" s="3">
         <v>100</v>
       </c>
       <c r="L54" s="3">
+        <v>100</v>
+      </c>
+      <c r="M54" s="3">
         <v>200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>600</v>
       </c>
-      <c r="N54" s="3">
-        <v>100</v>
-      </c>
       <c r="O54" s="3">
         <v>100</v>
       </c>
       <c r="P54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q54" s="3">
         <v>600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>900</v>
-      </c>
-      <c r="R54" s="3">
-        <v>800</v>
       </c>
       <c r="S54" s="3">
         <v>800</v>
       </c>
       <c r="T54" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="U54" s="3">
         <v>300</v>
@@ -3608,13 +3733,16 @@
         <v>300</v>
       </c>
       <c r="W54" s="3">
+        <v>300</v>
+      </c>
+      <c r="X54" s="3">
         <v>200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3794,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3674,31 +3804,31 @@
         <v>800</v>
       </c>
       <c r="E57" s="3">
+        <v>800</v>
+      </c>
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
-      </c>
-      <c r="H57" s="3">
-        <v>700</v>
       </c>
       <c r="I57" s="3">
         <v>700</v>
       </c>
       <c r="J57" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K57" s="3">
         <v>500</v>
       </c>
       <c r="L57" s="3">
+        <v>500</v>
+      </c>
+      <c r="M57" s="3">
         <v>300</v>
-      </c>
-      <c r="M57" s="3">
-        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
@@ -3707,7 +3837,7 @@
         <v>200</v>
       </c>
       <c r="P57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q57" s="3">
         <v>300</v>
@@ -3719,7 +3849,7 @@
         <v>300</v>
       </c>
       <c r="T57" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="U57" s="3">
         <v>500</v>
@@ -3731,15 +3861,18 @@
         <v>500</v>
       </c>
       <c r="X57" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -3748,34 +3881,34 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>600</v>
       </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>400</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
       <c r="N58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>100</v>
       </c>
       <c r="P58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q58" s="3">
         <v>200</v>
@@ -3784,39 +3917,42 @@
         <v>200</v>
       </c>
       <c r="S58" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="T58" s="3">
         <v>500</v>
       </c>
       <c r="U58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="V58" s="3">
         <v>400</v>
       </c>
       <c r="W58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="X58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>100</v>
+      </c>
+      <c r="E59" s="3">
         <v>400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
-        <v>100</v>
-      </c>
       <c r="G59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
         <v>200</v>
@@ -3828,35 +3964,35 @@
         <v>200</v>
       </c>
       <c r="K59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L59" s="3">
+        <v>100</v>
+      </c>
+      <c r="M59" s="3">
         <v>200</v>
-      </c>
-      <c r="M59" s="3">
-        <v>300</v>
       </c>
       <c r="N59" s="3">
         <v>300</v>
       </c>
       <c r="O59" s="3">
+        <v>300</v>
+      </c>
+      <c r="P59" s="3">
         <v>200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>300</v>
       </c>
-      <c r="T59" s="3">
-        <v>100</v>
-      </c>
       <c r="U59" s="3">
         <v>100</v>
       </c>
@@ -3869,8 +4005,11 @@
       <c r="X59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3881,46 +4020,46 @@
         <v>1200</v>
       </c>
       <c r="F60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G60" s="3">
         <v>400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1000</v>
-      </c>
-      <c r="L60" s="3">
-        <v>500</v>
       </c>
       <c r="M60" s="3">
         <v>500</v>
       </c>
       <c r="N60" s="3">
+        <v>500</v>
+      </c>
+      <c r="O60" s="3">
         <v>600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>900</v>
-      </c>
-      <c r="S60" s="3">
-        <v>1100</v>
       </c>
       <c r="T60" s="3">
         <v>1100</v>
@@ -3929,16 +4068,19 @@
         <v>1100</v>
       </c>
       <c r="V60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W60" s="3">
         <v>1000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,8 +4147,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,8 +4431,11 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4289,46 +4446,46 @@
         <v>1200</v>
       </c>
       <c r="F66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G66" s="3">
         <v>400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1000</v>
-      </c>
-      <c r="L66" s="3">
-        <v>500</v>
       </c>
       <c r="M66" s="3">
         <v>500</v>
       </c>
       <c r="N66" s="3">
+        <v>500</v>
+      </c>
+      <c r="O66" s="3">
         <v>600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>900</v>
-      </c>
-      <c r="S66" s="3">
-        <v>1100</v>
       </c>
       <c r="T66" s="3">
         <v>1100</v>
@@ -4337,16 +4494,19 @@
         <v>1100</v>
       </c>
       <c r="V66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W66" s="3">
         <v>1000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-72400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-70900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-70200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-68900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-41800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-36700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-27400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-26800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-26100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-23900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-23400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-22700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-19500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-18600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-17700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-13700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-13000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-12900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-12700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-12800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1000</v>
       </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
       <c r="G76" s="3">
+        <v>0</v>
+      </c>
+      <c r="H76" s="3">
         <v>-1000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-300</v>
       </c>
-      <c r="M76" s="3">
-        <v>100</v>
-      </c>
       <c r="N76" s="3">
+        <v>100</v>
+      </c>
+      <c r="O76" s="3">
         <v>-500</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-200</v>
       </c>
       <c r="P76" s="3">
         <v>-200</v>
       </c>
       <c r="Q76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R76" s="3">
         <v>200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-300</v>
-      </c>
-      <c r="T76" s="3">
-        <v>-800</v>
       </c>
       <c r="U76" s="3">
         <v>-800</v>
       </c>
       <c r="V76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="W76" s="3">
         <v>-700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-27000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-9200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-700</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-100</v>
       </c>
       <c r="U81" s="3">
         <v>-100</v>
       </c>
       <c r="V81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="W81" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="X81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,49 +5839,52 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="E89" s="3">
         <v>-200</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
       </c>
       <c r="H89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1300</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-300</v>
       </c>
       <c r="Q89" s="3">
         <v>-300</v>
@@ -5677,25 +5893,28 @@
         <v>-300</v>
       </c>
       <c r="S89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-100</v>
       </c>
       <c r="V89" s="3">
         <v>-100</v>
       </c>
       <c r="W89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="X89" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5734,14 +5954,14 @@
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
@@ -5758,8 +5978,8 @@
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5945,16 +6174,16 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
@@ -5962,8 +6191,8 @@
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6532,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>200</v>
       </c>
       <c r="H100" s="3">
+        <v>200</v>
+      </c>
+      <c r="I100" s="3">
         <v>300</v>
-      </c>
-      <c r="I100" s="3">
-        <v>500</v>
       </c>
       <c r="J100" s="3">
         <v>500</v>
       </c>
       <c r="K100" s="3">
+        <v>500</v>
+      </c>
+      <c r="L100" s="3">
         <v>1800</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>1100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1100</v>
       </c>
-      <c r="P100" s="3">
-        <v>100</v>
-      </c>
       <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
         <v>500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X100" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,22 +6674,25 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
@@ -6456,34 +6707,34 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>500</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
         <v>-200</v>
       </c>
       <c r="Q102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T102" s="3">
         <v>100</v>
       </c>
       <c r="U102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V102" s="3">
         <v>0</v>
@@ -6492,6 +6743,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UEEC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UEEC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
   <si>
     <t>UEEC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,115 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -818,25 +826,31 @@
         <v>0</v>
       </c>
       <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
         <v>300</v>
       </c>
-      <c r="U8" s="3">
-        <v>100</v>
-      </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
       <c r="W8" s="3">
+        <v>100</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
         <v>200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>200</v>
       </c>
-      <c r="Y8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -849,8 +863,8 @@
       <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
@@ -858,8 +872,8 @@
       <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -867,8 +881,8 @@
       <c r="L9" s="3">
         <v>0</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
+      <c r="M9" s="3">
+        <v>0</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
@@ -879,8 +893,8 @@
       <c r="P9" s="3">
         <v>0</v>
       </c>
-      <c r="Q9" s="3">
-        <v>0</v>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R9" s="3">
         <v>0</v>
@@ -901,13 +915,19 @@
         <v>0</v>
       </c>
       <c r="X9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -920,8 +940,8 @@
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
@@ -929,8 +949,8 @@
       <c r="I10" s="3">
         <v>0</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -938,8 +958,8 @@
       <c r="L10" s="3">
         <v>0</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
+      <c r="M10" s="3">
+        <v>0</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
@@ -950,8 +970,8 @@
       <c r="P10" s="3">
         <v>0</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R10" s="3">
         <v>0</v>
@@ -960,25 +980,31 @@
         <v>0</v>
       </c>
       <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
         <v>300</v>
       </c>
-      <c r="U10" s="3">
-        <v>100</v>
-      </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
       <c r="W10" s="3">
+        <v>100</v>
+      </c>
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3">
         <v>200</v>
       </c>
-      <c r="X10" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1013,46 +1041,46 @@
         <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F12" s="3">
         <v>100</v>
       </c>
       <c r="G12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
+        <v>100</v>
+      </c>
+      <c r="I12" s="3">
+        <v>100</v>
+      </c>
+      <c r="J12" s="3">
         <v>200</v>
       </c>
-      <c r="I12" s="3">
-        <v>100</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
       <c r="K12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
         <v>700</v>
       </c>
-      <c r="M12" s="3">
-        <v>100</v>
-      </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
+        <v>100</v>
+      </c>
+      <c r="P12" s="3">
         <v>200</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>4</v>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>100</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>4</v>
@@ -1075,8 +1103,14 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,40 +1180,46 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>400</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1188,26 +1228,26 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>3500</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>3600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>200</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1217,8 +1257,14 @@
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,79 +1364,87 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>26700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>4800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>9100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>6100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>5400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>4000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1000</v>
-      </c>
-      <c r="U17" s="3">
-        <v>200</v>
-      </c>
-      <c r="V17" s="3">
-        <v>200</v>
       </c>
       <c r="W17" s="3">
         <v>200</v>
       </c>
       <c r="X17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1392,70 +1452,76 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-26700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-4800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-9100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-6100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-2700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-4000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1547,10 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1496,14 +1564,14 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1552,8 +1620,14 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1561,26 +1635,26 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G21" s="3">
         <v>-700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-26400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-4800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-9100</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1623,8 +1697,14 @@
       <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1638,35 +1718,35 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="I22" s="3">
-        <v>100</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>500</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
@@ -1694,79 +1774,91 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-27000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-5200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-9200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-6600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-2700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-4000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
-      <c r="W23" s="3">
-        <v>100</v>
-      </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1928,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-27000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-5200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-9200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-6600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-2700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-4000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
-      <c r="W26" s="3">
-        <v>100</v>
-      </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-27000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-5200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-9200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-6600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-2700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-4000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
-      <c r="W27" s="3">
-        <v>100</v>
-      </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2467,14 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2348,14 +2488,14 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2404,79 +2544,91 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-27000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-5200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-9200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-6600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-2700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-4000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
-      <c r="W33" s="3">
-        <v>100</v>
-      </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-27000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-5200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-9200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-6600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-2700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-4000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
-      <c r="W35" s="3">
-        <v>100</v>
-      </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,8 +2919,10 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2756,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -2768,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -2780,37 +2954,37 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
         <v>500</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
         <v>300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>200</v>
       </c>
-      <c r="U41" s="3">
-        <v>100</v>
-      </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
       <c r="W41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X41" s="3">
         <v>0</v>
@@ -2818,8 +2992,14 @@
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,8 +3069,14 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2903,23 +3089,23 @@
       <c r="F43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="3">
-        <v>100</v>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
+      <c r="I43" s="3">
+        <v>100</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2934,45 +3120,51 @@
         <v>0</v>
       </c>
       <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>400</v>
-      </c>
-      <c r="U43" s="3">
-        <v>200</v>
-      </c>
-      <c r="V43" s="3">
-        <v>200</v>
       </c>
       <c r="W43" s="3">
         <v>200</v>
       </c>
       <c r="X43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>100</v>
+      <c r="D44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G44" s="3">
         <v>100</v>
@@ -3005,10 +3197,10 @@
         <v>100</v>
       </c>
       <c r="Q44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S44" s="3">
         <v>200</v>
@@ -3017,10 +3209,10 @@
         <v>200</v>
       </c>
       <c r="U44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W44" s="3">
         <v>100</v>
@@ -3029,10 +3221,16 @@
         <v>100</v>
       </c>
       <c r="Y44" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA44" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3048,14 +3246,14 @@
       <c r="G45" s="3">
         <v>0</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -3063,23 +3261,23 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P45" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -3087,23 +3285,29 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V45" s="3" t="s">
-        <v>4</v>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
       </c>
       <c r="W45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3111,20 +3315,20 @@
         <v>0</v>
       </c>
       <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
-        <v>100</v>
-      </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
+        <v>100</v>
+      </c>
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
-        <v>100</v>
-      </c>
-      <c r="I46" s="3">
-        <v>100</v>
-      </c>
       <c r="J46" s="3">
         <v>100</v>
       </c>
@@ -3135,46 +3339,52 @@
         <v>100</v>
       </c>
       <c r="M46" s="3">
+        <v>100</v>
+      </c>
+      <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>600</v>
       </c>
-      <c r="O46" s="3">
-        <v>100</v>
-      </c>
-      <c r="P46" s="3">
-        <v>100</v>
-      </c>
       <c r="Q46" s="3">
+        <v>100</v>
+      </c>
+      <c r="R46" s="3">
+        <v>100</v>
+      </c>
+      <c r="S46" s="3">
         <v>600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>800</v>
-      </c>
-      <c r="U46" s="3">
-        <v>300</v>
-      </c>
-      <c r="V46" s="3">
-        <v>300</v>
       </c>
       <c r="W46" s="3">
         <v>300</v>
       </c>
       <c r="X46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Y46" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,19 +3454,25 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>100</v>
+      <c r="D48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G48" s="3">
         <v>100</v>
@@ -3270,11 +3486,11 @@
       <c r="J48" s="3">
         <v>100</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
+      <c r="K48" s="3">
+        <v>100</v>
+      </c>
+      <c r="L48" s="3">
+        <v>100</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
@@ -3288,11 +3504,11 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -3315,8 +3531,14 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3326,20 +3548,20 @@
       <c r="E49" s="3">
         <v>0</v>
       </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -3386,8 +3608,14 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3762,14 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3599,8 +3839,14 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
+        <v>100</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
         <v>300</v>
-      </c>
-      <c r="F54" s="3">
-        <v>200</v>
-      </c>
-      <c r="G54" s="3">
-        <v>400</v>
       </c>
       <c r="H54" s="3">
         <v>200</v>
       </c>
       <c r="I54" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J54" s="3">
         <v>200</v>
       </c>
       <c r="K54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M54" s="3">
+        <v>100</v>
+      </c>
+      <c r="N54" s="3">
+        <v>100</v>
+      </c>
+      <c r="O54" s="3">
         <v>200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>600</v>
       </c>
-      <c r="O54" s="3">
-        <v>100</v>
-      </c>
-      <c r="P54" s="3">
-        <v>100</v>
-      </c>
       <c r="Q54" s="3">
+        <v>100</v>
+      </c>
+      <c r="R54" s="3">
+        <v>100</v>
+      </c>
+      <c r="S54" s="3">
         <v>600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>800</v>
-      </c>
-      <c r="U54" s="3">
-        <v>300</v>
-      </c>
-      <c r="V54" s="3">
-        <v>300</v>
       </c>
       <c r="W54" s="3">
         <v>300</v>
       </c>
       <c r="X54" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Y54" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA54" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,55 +4055,57 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F57" s="3">
         <v>800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>300</v>
-      </c>
-      <c r="N57" s="3">
-        <v>200</v>
-      </c>
-      <c r="O57" s="3">
-        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>200</v>
       </c>
       <c r="Q57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S57" s="3">
         <v>300</v>
@@ -3852,10 +4114,10 @@
         <v>300</v>
       </c>
       <c r="U57" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="V57" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="W57" s="3">
         <v>500</v>
@@ -3864,101 +4126,113 @@
         <v>500</v>
       </c>
       <c r="Y57" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>500</v>
+      </c>
+      <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>600</v>
       </c>
-      <c r="J58" s="3">
-        <v>100</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
+        <v>100</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>400</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
       <c r="O58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S58" s="3">
         <v>200</v>
       </c>
       <c r="T58" s="3">
+        <v>200</v>
+      </c>
+      <c r="U58" s="3">
+        <v>200</v>
+      </c>
+      <c r="V58" s="3">
         <v>500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E59" s="3">
+        <v>600</v>
+      </c>
+      <c r="F59" s="3">
+        <v>100</v>
+      </c>
+      <c r="G59" s="3">
         <v>400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3">
-        <v>100</v>
-      </c>
-      <c r="H59" s="3">
-        <v>200</v>
-      </c>
       <c r="I59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J59" s="3">
         <v>200</v>
@@ -3967,25 +4241,25 @@
         <v>200</v>
       </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M59" s="3">
         <v>200</v>
       </c>
       <c r="N59" s="3">
+        <v>100</v>
+      </c>
+      <c r="O59" s="3">
+        <v>200</v>
+      </c>
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>200</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>400</v>
-      </c>
-      <c r="R59" s="3">
-        <v>300</v>
       </c>
       <c r="S59" s="3">
         <v>400</v>
@@ -3994,10 +4268,10 @@
         <v>300</v>
       </c>
       <c r="U59" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="V59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="W59" s="3">
         <v>100</v>
@@ -4008,79 +4282,91 @@
       <c r="Y59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="E60" s="3">
-        <v>1200</v>
+        <v>2100</v>
       </c>
       <c r="F60" s="3">
         <v>1200</v>
       </c>
       <c r="G60" s="3">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="H60" s="3">
         <v>1200</v>
       </c>
       <c r="I60" s="3">
+        <v>400</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K60" s="3">
         <v>1400</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K60" s="3">
-        <v>800</v>
       </c>
       <c r="L60" s="3">
         <v>1000</v>
       </c>
       <c r="M60" s="3">
+        <v>800</v>
+      </c>
+      <c r="N60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O60" s="3">
         <v>500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>300</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>900</v>
-      </c>
-      <c r="R60" s="3">
-        <v>800</v>
       </c>
       <c r="S60" s="3">
         <v>900</v>
       </c>
       <c r="T60" s="3">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="U60" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="V60" s="3">
         <v>1100</v>
       </c>
       <c r="W60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y60" s="3">
         <v>1000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4150,8 +4436,14 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4221,8 +4513,14 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="E66" s="3">
-        <v>1200</v>
+        <v>2100</v>
       </c>
       <c r="F66" s="3">
         <v>1200</v>
       </c>
       <c r="G66" s="3">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="H66" s="3">
         <v>1200</v>
       </c>
       <c r="I66" s="3">
+        <v>400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K66" s="3">
         <v>1400</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K66" s="3">
-        <v>800</v>
       </c>
       <c r="L66" s="3">
         <v>1000</v>
       </c>
       <c r="M66" s="3">
+        <v>800</v>
+      </c>
+      <c r="N66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O66" s="3">
         <v>500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>300</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>900</v>
-      </c>
-      <c r="R66" s="3">
-        <v>800</v>
       </c>
       <c r="S66" s="3">
         <v>900</v>
       </c>
       <c r="T66" s="3">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="U66" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="V66" s="3">
         <v>1100</v>
       </c>
       <c r="W66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y66" s="3">
         <v>1000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-74200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-73400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-72400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-70900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-70200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-68900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-41800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-36700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-27400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-26800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-26100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-23900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-23400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-22700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-19500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-19000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-18600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-17700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-13700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-13000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-12900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-12700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-12800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-900</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="G76" s="3">
-        <v>0</v>
       </c>
       <c r="H76" s="3">
         <v>-1000</v>
       </c>
       <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K76" s="3">
         <v>-1200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-300</v>
       </c>
-      <c r="N76" s="3">
-        <v>100</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-800</v>
-      </c>
-      <c r="V76" s="3">
-        <v>-800</v>
-      </c>
-      <c r="W76" s="3">
-        <v>-700</v>
       </c>
       <c r="X76" s="3">
         <v>-800</v>
       </c>
       <c r="Y76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Z76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="AA76" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-27000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-5200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-9200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-6600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-2700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-4000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
-      <c r="W81" s="3">
-        <v>100</v>
-      </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5427,20 +5825,20 @@
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -5487,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6270,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
         <v>-200</v>
       </c>
       <c r="F89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1300</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-300</v>
       </c>
       <c r="S89" s="3">
         <v>-300</v>
       </c>
       <c r="T89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6380,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5957,17 +6399,17 @@
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
@@ -5981,11 +6423,11 @@
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -6011,8 +6453,14 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6607,14 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6177,28 +6637,28 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -6224,8 +6684,14 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,8 +7021,14 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6544,70 +7036,76 @@
         <v>200</v>
       </c>
       <c r="E100" s="3">
+        <v>200</v>
+      </c>
+      <c r="F100" s="3">
+        <v>200</v>
+      </c>
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1800</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>1100</v>
-      </c>
       <c r="O100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>1100</v>
       </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R100" s="3">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="S100" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="T100" s="3">
         <v>500</v>
       </c>
       <c r="U100" s="3">
+        <v>300</v>
+      </c>
+      <c r="V100" s="3">
+        <v>500</v>
+      </c>
+      <c r="W100" s="3">
         <v>200</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-      <c r="W100" s="3">
-        <v>100</v>
-      </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z100" s="3">
         <v>200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,28 +7175,34 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
@@ -6710,42 +7214,48 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>500</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3">
-        <v>100</v>
-      </c>
       <c r="U102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X102" s="3">
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UEEC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UEEC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
   <si>
     <t>UEEC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -832,30 +836,33 @@
         <v>0</v>
       </c>
       <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
         <v>300</v>
       </c>
-      <c r="W8" s="3">
-        <v>100</v>
-      </c>
       <c r="X8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="3">
         <v>200</v>
       </c>
       <c r="AA8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>0</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>4</v>
@@ -869,14 +876,14 @@
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
@@ -887,17 +894,17 @@
       <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R9" s="3">
-        <v>0</v>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S9" s="3">
         <v>0</v>
@@ -921,13 +928,16 @@
         <v>0</v>
       </c>
       <c r="Z9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -946,14 +956,14 @@
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
@@ -964,17 +974,17 @@
       <c r="N10" s="3">
         <v>0</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R10" s="3">
-        <v>0</v>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S10" s="3">
         <v>0</v>
@@ -986,25 +996,28 @@
         <v>0</v>
       </c>
       <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
         <v>300</v>
       </c>
-      <c r="W10" s="3">
-        <v>100</v>
-      </c>
       <c r="X10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
         <v>200</v>
       </c>
-      <c r="Z10" s="3">
-        <v>100</v>
-      </c>
       <c r="AA10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,13 +1045,14 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -1047,43 +1061,43 @@
         <v>100</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I12" s="3">
         <v>100</v>
       </c>
       <c r="J12" s="3">
+        <v>100</v>
+      </c>
+      <c r="K12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3">
-        <v>100</v>
-      </c>
       <c r="L12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M12" s="3">
         <v>0</v>
       </c>
       <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
         <v>700</v>
       </c>
-      <c r="O12" s="3">
-        <v>100</v>
-      </c>
       <c r="P12" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="3">
         <v>200</v>
       </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
       <c r="R12" s="3">
-        <v>100</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
+        <v>100</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>4</v>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,23 +1203,26 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>400</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
@@ -1210,19 +1230,19 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1234,23 +1254,23 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>3500</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>3600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>200</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,70 +1392,71 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>26700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9100</v>
-      </c>
-      <c r="L17" s="3">
-        <v>600</v>
       </c>
       <c r="M17" s="3">
         <v>600</v>
       </c>
       <c r="N17" s="3">
+        <v>600</v>
+      </c>
+      <c r="O17" s="3">
         <v>6100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1000</v>
-      </c>
-      <c r="W17" s="3">
-        <v>200</v>
       </c>
       <c r="X17" s="3">
         <v>200</v>
@@ -1438,13 +1465,16 @@
         <v>200</v>
       </c>
       <c r="Z17" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA17" s="3">
         <v>300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1452,76 +1482,79 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-26700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-9100</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-600</v>
       </c>
       <c r="M18" s="3">
         <v>-600</v>
       </c>
       <c r="N18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O18" s="3">
         <v>-6100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-5400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-4000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-200</v>
       </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
       <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1570,11 +1604,11 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1626,8 +1660,11 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1635,29 +1672,29 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-26400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-4800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-9100</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1703,8 +1740,11 @@
       <c r="AA21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1724,32 +1764,32 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>400</v>
       </c>
-      <c r="K22" s="3">
-        <v>100</v>
-      </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>500</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
@@ -1780,85 +1820,91 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-27000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-9200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-6600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-4000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-700</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-100</v>
       </c>
       <c r="X23" s="3">
         <v>-100</v>
       </c>
       <c r="Y23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Z23" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="AA23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-27000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-6600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-4000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-700</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-100</v>
       </c>
       <c r="X26" s="3">
         <v>-100</v>
       </c>
       <c r="Y26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Z26" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="AA26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-27000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-6600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-4000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-700</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-100</v>
       </c>
       <c r="X27" s="3">
         <v>-100</v>
       </c>
       <c r="Y27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Z27" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="AA27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2494,11 +2564,11 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2550,85 +2620,91 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-27000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-6600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-4000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-700</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-100</v>
       </c>
       <c r="X33" s="3">
         <v>-100</v>
       </c>
       <c r="Y33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Z33" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="AA33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-27000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-6600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-4000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-700</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-100</v>
       </c>
       <c r="X35" s="3">
         <v>-100</v>
       </c>
       <c r="Y35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Z35" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="AA35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,13 +3007,14 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2936,17 +3023,17 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -2960,34 +3047,34 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
         <v>300</v>
-      </c>
-      <c r="U41" s="3">
-        <v>200</v>
       </c>
       <c r="V41" s="3">
         <v>200</v>
       </c>
       <c r="W41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y41" s="3">
         <v>0</v>
@@ -2998,8 +3085,11 @@
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3095,11 +3188,11 @@
       <c r="H43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I43" s="3">
-        <v>100</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3">
+        <v>100</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
@@ -3107,8 +3200,8 @@
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -3126,19 +3219,19 @@
         <v>0</v>
       </c>
       <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
         <v>400</v>
-      </c>
-      <c r="T43" s="3">
-        <v>500</v>
       </c>
       <c r="U43" s="3">
         <v>500</v>
       </c>
       <c r="V43" s="3">
+        <v>500</v>
+      </c>
+      <c r="W43" s="3">
         <v>400</v>
-      </c>
-      <c r="W43" s="3">
-        <v>200</v>
       </c>
       <c r="X43" s="3">
         <v>200</v>
@@ -3147,27 +3240,30 @@
         <v>200</v>
       </c>
       <c r="Z43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>4</v>
+      <c r="D44" s="3">
+        <v>0</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H44" s="3">
         <v>100</v>
@@ -3203,7 +3299,7 @@
         <v>100</v>
       </c>
       <c r="S44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T44" s="3">
         <v>200</v>
@@ -3215,7 +3311,7 @@
         <v>200</v>
       </c>
       <c r="W44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X44" s="3">
         <v>100</v>
@@ -3227,10 +3323,13 @@
         <v>100</v>
       </c>
       <c r="AA44" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB44" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3252,11 +3351,11 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -3267,8 +3366,8 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>4</v>
@@ -3276,11 +3375,11 @@
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R45" s="3">
-        <v>100</v>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
@@ -3291,8 +3390,8 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>4</v>
+      <c r="W45" s="3">
+        <v>0</v>
       </c>
       <c r="X45" s="3" t="s">
         <v>4</v>
@@ -3300,19 +3399,22 @@
       <c r="Y45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z45" s="3">
-        <v>0</v>
+      <c r="Z45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -3321,17 +3423,17 @@
         <v>0</v>
       </c>
       <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
-        <v>100</v>
-      </c>
       <c r="I46" s="3">
+        <v>100</v>
+      </c>
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
-        <v>100</v>
-      </c>
       <c r="K46" s="3">
         <v>100</v>
       </c>
@@ -3345,31 +3447,31 @@
         <v>100</v>
       </c>
       <c r="O46" s="3">
+        <v>100</v>
+      </c>
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>600</v>
       </c>
-      <c r="Q46" s="3">
-        <v>100</v>
-      </c>
       <c r="R46" s="3">
         <v>100</v>
       </c>
       <c r="S46" s="3">
+        <v>100</v>
+      </c>
+      <c r="T46" s="3">
         <v>600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>900</v>
-      </c>
-      <c r="U46" s="3">
-        <v>800</v>
       </c>
       <c r="V46" s="3">
         <v>800</v>
       </c>
       <c r="W46" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="X46" s="3">
         <v>300</v>
@@ -3378,13 +3480,16 @@
         <v>300</v>
       </c>
       <c r="Z46" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA46" s="3">
         <v>200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3471,11 +3579,11 @@
       <c r="E48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3">
         <v>100</v>
@@ -3492,8 +3600,8 @@
       <c r="L48" s="3">
         <v>100</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
+      <c r="M48" s="3">
+        <v>100</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
@@ -3510,8 +3618,8 @@
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3548,8 +3659,8 @@
       <c r="E49" s="3">
         <v>0</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
+      <c r="F49" s="3">
+        <v>0</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>4</v>
@@ -3563,8 +3674,8 @@
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,31 +3885,34 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,31 +4045,34 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E54" s="3">
         <v>100</v>
       </c>
       <c r="F54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
         <v>300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>400</v>
-      </c>
-      <c r="J54" s="3">
-        <v>200</v>
       </c>
       <c r="K54" s="3">
         <v>200</v>
@@ -3955,37 +4081,37 @@
         <v>200</v>
       </c>
       <c r="M54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N54" s="3">
         <v>100</v>
       </c>
       <c r="O54" s="3">
+        <v>100</v>
+      </c>
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>600</v>
       </c>
-      <c r="Q54" s="3">
-        <v>100</v>
-      </c>
       <c r="R54" s="3">
         <v>100</v>
       </c>
       <c r="S54" s="3">
+        <v>100</v>
+      </c>
+      <c r="T54" s="3">
         <v>600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>900</v>
-      </c>
-      <c r="U54" s="3">
-        <v>800</v>
       </c>
       <c r="V54" s="3">
         <v>800</v>
       </c>
       <c r="W54" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="X54" s="3">
         <v>300</v>
@@ -3994,13 +4120,16 @@
         <v>300</v>
       </c>
       <c r="Z54" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA54" s="3">
         <v>200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,49 +4187,50 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
         <v>1300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1000</v>
-      </c>
-      <c r="F57" s="3">
-        <v>800</v>
       </c>
       <c r="G57" s="3">
         <v>800</v>
       </c>
       <c r="H57" s="3">
+        <v>800</v>
+      </c>
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
-      </c>
-      <c r="K57" s="3">
-        <v>700</v>
       </c>
       <c r="L57" s="3">
         <v>700</v>
       </c>
       <c r="M57" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N57" s="3">
         <v>500</v>
       </c>
       <c r="O57" s="3">
+        <v>500</v>
+      </c>
+      <c r="P57" s="3">
         <v>300</v>
-      </c>
-      <c r="P57" s="3">
-        <v>200</v>
       </c>
       <c r="Q57" s="3">
         <v>200</v>
@@ -4108,7 +4239,7 @@
         <v>200</v>
       </c>
       <c r="S57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T57" s="3">
         <v>300</v>
@@ -4120,7 +4251,7 @@
         <v>300</v>
       </c>
       <c r="W57" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="X57" s="3">
         <v>500</v>
@@ -4132,25 +4263,28 @@
         <v>500</v>
       </c>
       <c r="AA57" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>200</v>
+      </c>
+      <c r="E58" s="3">
         <v>700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
@@ -4158,34 +4292,34 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>600</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="M58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>400</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
       <c r="Q58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R58" s="3">
         <v>100</v>
       </c>
       <c r="S58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T58" s="3">
         <v>200</v>
@@ -4194,48 +4328,51 @@
         <v>200</v>
       </c>
       <c r="V58" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="W58" s="3">
         <v>500</v>
       </c>
       <c r="X58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Y58" s="3">
         <v>400</v>
       </c>
       <c r="Z58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AA58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>300</v>
+      </c>
+      <c r="E59" s="3">
         <v>400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3">
-        <v>100</v>
-      </c>
       <c r="G59" s="3">
+        <v>100</v>
+      </c>
+      <c r="H59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>700</v>
       </c>
-      <c r="I59" s="3">
-        <v>100</v>
-      </c>
       <c r="J59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K59" s="3">
         <v>200</v>
@@ -4247,35 +4384,35 @@
         <v>200</v>
       </c>
       <c r="N59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O59" s="3">
+        <v>100</v>
+      </c>
+      <c r="P59" s="3">
         <v>200</v>
-      </c>
-      <c r="P59" s="3">
-        <v>300</v>
       </c>
       <c r="Q59" s="3">
         <v>300</v>
       </c>
       <c r="R59" s="3">
+        <v>300</v>
+      </c>
+      <c r="S59" s="3">
         <v>200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>300</v>
       </c>
-      <c r="W59" s="3">
-        <v>100</v>
-      </c>
       <c r="X59" s="3">
         <v>100</v>
       </c>
@@ -4288,19 +4425,22 @@
       <c r="AA59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E60" s="3">
         <v>2400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2100</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1200</v>
       </c>
       <c r="G60" s="3">
         <v>1200</v>
@@ -4309,46 +4449,46 @@
         <v>1200</v>
       </c>
       <c r="I60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J60" s="3">
         <v>400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1000</v>
-      </c>
-      <c r="O60" s="3">
-        <v>500</v>
       </c>
       <c r="P60" s="3">
         <v>500</v>
       </c>
       <c r="Q60" s="3">
+        <v>500</v>
+      </c>
+      <c r="R60" s="3">
         <v>600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>900</v>
-      </c>
-      <c r="V60" s="3">
-        <v>1100</v>
       </c>
       <c r="W60" s="3">
         <v>1100</v>
@@ -4357,21 +4497,24 @@
         <v>1100</v>
       </c>
       <c r="Y60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Z60" s="3">
         <v>1000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,19 +4905,22 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E66" s="3">
         <v>2400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2100</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1200</v>
       </c>
       <c r="G66" s="3">
         <v>1200</v>
@@ -4771,46 +4929,46 @@
         <v>1200</v>
       </c>
       <c r="I66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J66" s="3">
         <v>400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1000</v>
-      </c>
-      <c r="O66" s="3">
-        <v>500</v>
       </c>
       <c r="P66" s="3">
         <v>500</v>
       </c>
       <c r="Q66" s="3">
+        <v>500</v>
+      </c>
+      <c r="R66" s="3">
         <v>600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>900</v>
-      </c>
-      <c r="V66" s="3">
-        <v>1100</v>
       </c>
       <c r="W66" s="3">
         <v>1100</v>
@@ -4819,16 +4977,19 @@
         <v>1100</v>
       </c>
       <c r="Y66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Z66" s="3">
         <v>1000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-73400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-74200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-73400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-72400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-70900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-70200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-68900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-41800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-36700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-27400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-26800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-26100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-23900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-23400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-22700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-19500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-19000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-18600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-17700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-13700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-13000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-12900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-12700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-12800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1000</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
       <c r="J76" s="3">
+        <v>0</v>
+      </c>
+      <c r="K76" s="3">
         <v>-1000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-300</v>
       </c>
-      <c r="P76" s="3">
-        <v>100</v>
-      </c>
       <c r="Q76" s="3">
+        <v>100</v>
+      </c>
+      <c r="R76" s="3">
         <v>-500</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-200</v>
       </c>
       <c r="S76" s="3">
         <v>-200</v>
       </c>
       <c r="T76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U76" s="3">
         <v>200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-300</v>
-      </c>
-      <c r="W76" s="3">
-        <v>-800</v>
       </c>
       <c r="X76" s="3">
         <v>-800</v>
       </c>
       <c r="Y76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Z76" s="3">
         <v>-700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-27000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-6600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-4000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-700</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-100</v>
       </c>
       <c r="X81" s="3">
         <v>-100</v>
       </c>
       <c r="Y81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Z81" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="AA81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5825,8 +6024,8 @@
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>4</v>
@@ -5840,8 +6039,8 @@
       <c r="J83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,58 +6490,61 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
         <v>-200</v>
       </c>
       <c r="F89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G89" s="3">
         <v>-400</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-200</v>
       </c>
       <c r="H89" s="3">
         <v>-200</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1300</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-300</v>
       </c>
       <c r="T89" s="3">
         <v>-300</v>
@@ -6336,25 +6553,28 @@
         <v>-300</v>
       </c>
       <c r="V89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W89" s="3">
         <v>-400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-200</v>
-      </c>
-      <c r="X89" s="3">
-        <v>-100</v>
       </c>
       <c r="Y89" s="3">
         <v>-100</v>
       </c>
       <c r="Z89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="AA89" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6405,14 +6626,14 @@
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
@@ -6429,8 +6650,8 @@
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6643,16 +6873,16 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
@@ -6660,8 +6890,8 @@
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,13 +7270,16 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>200</v>
@@ -7042,70 +7288,73 @@
         <v>200</v>
       </c>
       <c r="G100" s="3">
+        <v>200</v>
+      </c>
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>200</v>
       </c>
       <c r="K100" s="3">
+        <v>200</v>
+      </c>
+      <c r="L100" s="3">
         <v>300</v>
-      </c>
-      <c r="L100" s="3">
-        <v>500</v>
       </c>
       <c r="M100" s="3">
         <v>500</v>
       </c>
       <c r="N100" s="3">
+        <v>500</v>
+      </c>
+      <c r="O100" s="3">
         <v>1800</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>1100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1100</v>
       </c>
-      <c r="S100" s="3">
-        <v>100</v>
-      </c>
       <c r="T100" s="3">
+        <v>100</v>
+      </c>
+      <c r="U100" s="3">
         <v>500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>200</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA100" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,31 +7430,34 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
       <c r="H102" s="3">
+        <v>100</v>
+      </c>
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
@@ -7220,34 +7472,34 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>500</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
         <v>-200</v>
       </c>
       <c r="T102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U102" s="3">
         <v>200</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W102" s="3">
         <v>100</v>
       </c>
       <c r="X102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y102" s="3">
         <v>0</v>
@@ -7256,6 +7508,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UEEC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UEEC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
   <si>
     <t>UEEC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,126 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -839,36 +846,42 @@
         <v>0</v>
       </c>
       <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
         <v>300</v>
       </c>
-      <c r="X8" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>0</v>
-      </c>
       <c r="Z8" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3">
         <v>200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>200</v>
       </c>
-      <c r="AB8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
+      <c r="F9" s="3">
+        <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
@@ -879,8 +892,8 @@
       <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
@@ -888,8 +901,8 @@
       <c r="L9" s="3">
         <v>0</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
@@ -897,8 +910,8 @@
       <c r="O9" s="3">
         <v>0</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
+      <c r="P9" s="3">
+        <v>0</v>
       </c>
       <c r="Q9" s="3">
         <v>0</v>
@@ -909,8 +922,8 @@
       <c r="S9" s="3">
         <v>0</v>
       </c>
-      <c r="T9" s="3">
-        <v>0</v>
+      <c r="T9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U9" s="3">
         <v>0</v>
@@ -931,13 +944,19 @@
         <v>0</v>
       </c>
       <c r="AA9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -947,8 +966,8 @@
       <c r="E10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
+      <c r="F10" s="3">
+        <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
@@ -959,8 +978,8 @@
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
@@ -968,8 +987,8 @@
       <c r="L10" s="3">
         <v>0</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
@@ -977,8 +996,8 @@
       <c r="O10" s="3">
         <v>0</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
+      <c r="P10" s="3">
+        <v>0</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
@@ -989,8 +1008,8 @@
       <c r="S10" s="3">
         <v>0</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
+      <c r="T10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U10" s="3">
         <v>0</v>
@@ -999,25 +1018,31 @@
         <v>0</v>
       </c>
       <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3">
         <v>300</v>
       </c>
-      <c r="X10" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>0</v>
-      </c>
       <c r="Z10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="3">
         <v>200</v>
       </c>
-      <c r="AA10" s="3">
-        <v>100</v>
-      </c>
-      <c r="AB10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1071,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1055,55 +1082,55 @@
         <v>200</v>
       </c>
       <c r="E12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G12" s="3">
         <v>100</v>
       </c>
       <c r="H12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I12" s="3">
         <v>100</v>
       </c>
       <c r="J12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K12" s="3">
+        <v>100</v>
+      </c>
+      <c r="L12" s="3">
+        <v>100</v>
+      </c>
+      <c r="M12" s="3">
         <v>200</v>
       </c>
-      <c r="L12" s="3">
-        <v>100</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
       <c r="N12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
         <v>700</v>
       </c>
-      <c r="P12" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
+        <v>100</v>
+      </c>
+      <c r="S12" s="3">
         <v>200</v>
       </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
-      <c r="S12" s="3">
-        <v>100</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>4</v>
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
+        <v>100</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>4</v>
@@ -1126,8 +1153,14 @@
       <c r="AB12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,13 +1239,19 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E14" s="3">
         <v>100</v>
@@ -1221,34 +1260,34 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>100</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>400</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1257,26 +1296,26 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>3500</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>3600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>200</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1286,8 +1325,14 @@
       <c r="AB14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1411,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,88 +1444,96 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
+        <v>600</v>
+      </c>
+      <c r="G17" s="3">
         <v>900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>26700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>4800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>9100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>6100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>5400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>4000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1000</v>
-      </c>
-      <c r="X17" s="3">
-        <v>200</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>200</v>
       </c>
       <c r="Z17" s="3">
         <v>200</v>
       </c>
       <c r="AA17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AB17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1482,79 +1541,85 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G18" s="3">
         <v>-900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-26700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-4800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-9100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-6100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-2700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-5400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-4000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-200</v>
       </c>
-      <c r="Z18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3">
         <v>-100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1648,10 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1595,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1607,14 +1674,14 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1663,8 +1730,14 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1672,35 +1745,35 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F21" s="3">
+        <v>900</v>
+      </c>
+      <c r="G21" s="3">
         <v>-900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-26400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-4800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-9100</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1743,8 +1816,14 @@
       <c r="AB21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1767,35 +1846,35 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>400</v>
       </c>
-      <c r="L22" s="3">
-        <v>100</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>500</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>200</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
@@ -1823,88 +1902,100 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F23" s="3">
         <v>800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-27000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-5200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-9200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-6600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-2700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-5400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-4000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-100</v>
       </c>
-      <c r="Z23" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC23" s="3">
         <v>-200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2074,14 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2160,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F26" s="3">
         <v>800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-27000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-5200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-9200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-6600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-2700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-5400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-4000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-100</v>
       </c>
-      <c r="Z26" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC26" s="3">
         <v>-200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F27" s="3">
         <v>800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-27000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-5200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-9200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-6600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-2700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-5400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-4000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-100</v>
       </c>
-      <c r="Z27" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC27" s="3">
         <v>-200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2504,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2676,14 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2555,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -2567,14 +2706,14 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2623,88 +2762,100 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F33" s="3">
         <v>800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-27000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-5200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-9200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-6600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-2700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-5400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-4000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-100</v>
       </c>
-      <c r="Z33" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC33" s="3">
         <v>-200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2934,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F35" s="3">
         <v>800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-27000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-5200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-9200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-6600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-2700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-5400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-4000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-100</v>
       </c>
-      <c r="Z35" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC35" s="3">
         <v>-200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,25 +3179,27 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
@@ -3038,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
@@ -3050,37 +3223,37 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
         <v>500</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>100</v>
+      </c>
+      <c r="W41" s="3">
         <v>300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>200</v>
       </c>
-      <c r="X41" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y41" s="3">
-        <v>0</v>
-      </c>
       <c r="Z41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA41" s="3">
         <v>0</v>
@@ -3088,8 +3261,14 @@
       <c r="AB41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,46 +3347,52 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
+      <c r="L43" s="3">
+        <v>100</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -3222,54 +3407,60 @@
         <v>0</v>
       </c>
       <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
         <v>400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>400</v>
-      </c>
-      <c r="X43" s="3">
-        <v>200</v>
-      </c>
-      <c r="Y43" s="3">
-        <v>200</v>
       </c>
       <c r="Z43" s="3">
         <v>200</v>
       </c>
       <c r="AA43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AB43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
         <v>0</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>100</v>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J44" s="3">
         <v>100</v>
@@ -3302,10 +3493,10 @@
         <v>100</v>
       </c>
       <c r="T44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V44" s="3">
         <v>200</v>
@@ -3314,10 +3505,10 @@
         <v>200</v>
       </c>
       <c r="X44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z44" s="3">
         <v>100</v>
@@ -3326,10 +3517,16 @@
         <v>100</v>
       </c>
       <c r="AB44" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD44" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3354,14 +3551,14 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -3369,23 +3566,23 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S45" s="3">
-        <v>100</v>
-      </c>
-      <c r="T45" s="3">
-        <v>0</v>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
@@ -3393,53 +3590,59 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y45" s="3" t="s">
-        <v>4</v>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
       </c>
       <c r="Z45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA45" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
       <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
-        <v>100</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
-        <v>100</v>
-      </c>
-      <c r="L46" s="3">
-        <v>100</v>
-      </c>
       <c r="M46" s="3">
         <v>100</v>
       </c>
@@ -3450,46 +3653,52 @@
         <v>100</v>
       </c>
       <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>100</v>
+      </c>
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>600</v>
       </c>
-      <c r="R46" s="3">
-        <v>100</v>
-      </c>
-      <c r="S46" s="3">
-        <v>100</v>
-      </c>
       <c r="T46" s="3">
+        <v>100</v>
+      </c>
+      <c r="U46" s="3">
+        <v>100</v>
+      </c>
+      <c r="V46" s="3">
         <v>600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>800</v>
-      </c>
-      <c r="X46" s="3">
-        <v>300</v>
-      </c>
-      <c r="Y46" s="3">
-        <v>300</v>
       </c>
       <c r="Z46" s="3">
         <v>300</v>
       </c>
       <c r="AA46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AB46" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,8 +3777,14 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3582,14 +3797,14 @@
       <c r="F48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>100</v>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J48" s="3">
         <v>100</v>
@@ -3603,11 +3818,11 @@
       <c r="M48" s="3">
         <v>100</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
+      <c r="N48" s="3">
+        <v>100</v>
+      </c>
+      <c r="O48" s="3">
+        <v>100</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
@@ -3621,11 +3836,11 @@
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T48" s="3">
-        <v>0</v>
-      </c>
-      <c r="U48" s="3">
-        <v>0</v>
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V48" s="3">
         <v>0</v>
@@ -3648,8 +3863,14 @@
       <c r="AB48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3662,11 +3883,11 @@
       <c r="F49" s="3">
         <v>0</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>4</v>
@@ -3677,11 +3898,11 @@
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -3728,8 +3949,14 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,20 +4121,26 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>200</v>
+      </c>
+      <c r="F52" s="3">
         <v>300</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3914,11 +4153,11 @@
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -3968,8 +4207,14 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4293,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>400</v>
+      </c>
+      <c r="F54" s="3">
         <v>500</v>
       </c>
-      <c r="E54" s="3">
-        <v>100</v>
-      </c>
-      <c r="F54" s="3">
-        <v>100</v>
-      </c>
       <c r="G54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H54" s="3">
+        <v>100</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
         <v>300</v>
-      </c>
-      <c r="I54" s="3">
-        <v>200</v>
-      </c>
-      <c r="J54" s="3">
-        <v>400</v>
       </c>
       <c r="K54" s="3">
         <v>200</v>
       </c>
       <c r="L54" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="M54" s="3">
         <v>200</v>
       </c>
       <c r="N54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>100</v>
+      </c>
+      <c r="R54" s="3">
         <v>200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>600</v>
       </c>
-      <c r="R54" s="3">
-        <v>100</v>
-      </c>
-      <c r="S54" s="3">
-        <v>100</v>
-      </c>
       <c r="T54" s="3">
+        <v>100</v>
+      </c>
+      <c r="U54" s="3">
+        <v>100</v>
+      </c>
+      <c r="V54" s="3">
         <v>600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>800</v>
-      </c>
-      <c r="X54" s="3">
-        <v>300</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>300</v>
       </c>
       <c r="Z54" s="3">
         <v>300</v>
       </c>
       <c r="AA54" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AB54" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD54" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,64 +4447,66 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E57" s="3">
         <v>1300</v>
       </c>
       <c r="F57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H57" s="3">
         <v>1000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>200</v>
-      </c>
-      <c r="R57" s="3">
-        <v>200</v>
       </c>
       <c r="S57" s="3">
         <v>200</v>
       </c>
       <c r="T57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V57" s="3">
         <v>300</v>
@@ -4254,10 +4515,10 @@
         <v>300</v>
       </c>
       <c r="X57" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Y57" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Z57" s="3">
         <v>500</v>
@@ -4266,119 +4527,131 @@
         <v>500</v>
       </c>
       <c r="AB57" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>500</v>
+      </c>
+      <c r="AD57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E58" s="3">
         <v>700</v>
       </c>
       <c r="F58" s="3">
+        <v>200</v>
+      </c>
+      <c r="G58" s="3">
+        <v>700</v>
+      </c>
+      <c r="H58" s="3">
         <v>500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>600</v>
       </c>
-      <c r="M58" s="3">
-        <v>100</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
       <c r="O58" s="3">
+        <v>100</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>400</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
       <c r="R58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V58" s="3">
         <v>200</v>
       </c>
       <c r="W58" s="3">
+        <v>200</v>
+      </c>
+      <c r="X58" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y58" s="3">
         <v>500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>300</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>500</v>
+      </c>
+      <c r="F59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3">
-        <v>100</v>
-      </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
+        <v>100</v>
+      </c>
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
-        <v>100</v>
-      </c>
-      <c r="K59" s="3">
-        <v>200</v>
-      </c>
       <c r="L59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M59" s="3">
         <v>200</v>
@@ -4387,25 +4660,25 @@
         <v>200</v>
       </c>
       <c r="O59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P59" s="3">
         <v>200</v>
       </c>
       <c r="Q59" s="3">
+        <v>100</v>
+      </c>
+      <c r="R59" s="3">
+        <v>200</v>
+      </c>
+      <c r="S59" s="3">
         <v>300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>200</v>
-      </c>
-      <c r="T59" s="3">
-        <v>400</v>
-      </c>
-      <c r="U59" s="3">
-        <v>300</v>
       </c>
       <c r="V59" s="3">
         <v>400</v>
@@ -4414,10 +4687,10 @@
         <v>300</v>
       </c>
       <c r="X59" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="Y59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Z59" s="3">
         <v>100</v>
@@ -4428,100 +4701,112 @@
       <c r="AB59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1600</v>
+        <v>2300</v>
       </c>
       <c r="E60" s="3">
         <v>2400</v>
       </c>
       <c r="F60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H60" s="3">
         <v>2100</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1200</v>
       </c>
       <c r="I60" s="3">
         <v>1200</v>
       </c>
       <c r="J60" s="3">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="K60" s="3">
         <v>1200</v>
       </c>
       <c r="L60" s="3">
+        <v>400</v>
+      </c>
+      <c r="M60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N60" s="3">
         <v>1400</v>
-      </c>
-      <c r="M60" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N60" s="3">
-        <v>800</v>
       </c>
       <c r="O60" s="3">
         <v>1000</v>
       </c>
       <c r="P60" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R60" s="3">
         <v>500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>300</v>
-      </c>
-      <c r="T60" s="3">
-        <v>900</v>
-      </c>
-      <c r="U60" s="3">
-        <v>800</v>
       </c>
       <c r="V60" s="3">
         <v>900</v>
       </c>
       <c r="W60" s="3">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="X60" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="Y60" s="3">
         <v>1100</v>
       </c>
       <c r="Z60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AB60" s="3">
         <v>1000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>600</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -4588,8 +4873,14 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4668,8 +4959,14 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5217,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="E66" s="3">
         <v>2400</v>
       </c>
       <c r="F66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H66" s="3">
         <v>2100</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1200</v>
       </c>
       <c r="I66" s="3">
         <v>1200</v>
       </c>
       <c r="J66" s="3">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="K66" s="3">
         <v>1200</v>
       </c>
       <c r="L66" s="3">
+        <v>400</v>
+      </c>
+      <c r="M66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N66" s="3">
         <v>1400</v>
-      </c>
-      <c r="M66" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N66" s="3">
-        <v>800</v>
       </c>
       <c r="O66" s="3">
         <v>1000</v>
       </c>
       <c r="P66" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R66" s="3">
         <v>500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>300</v>
-      </c>
-      <c r="T66" s="3">
-        <v>900</v>
-      </c>
-      <c r="U66" s="3">
-        <v>800</v>
       </c>
       <c r="V66" s="3">
         <v>900</v>
       </c>
       <c r="W66" s="3">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="X66" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="Y66" s="3">
         <v>1100</v>
       </c>
       <c r="Z66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AA66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AB66" s="3">
         <v>1000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5679,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-73400</v>
+        <v>-75200</v>
       </c>
       <c r="E72" s="3">
-        <v>-74200</v>
+        <v>-74100</v>
       </c>
       <c r="F72" s="3">
         <v>-73400</v>
       </c>
       <c r="G72" s="3">
+        <v>-74200</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-73400</v>
+      </c>
+      <c r="I72" s="3">
         <v>-72400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-70900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-70200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-68900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-41800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-36700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-27400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-26800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-26100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-23900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-23400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-22700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-19500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-19000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-18600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-17700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-13700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-13000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-12900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-12700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-12800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +6023,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-2300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-1100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-900</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="J76" s="3">
-        <v>0</v>
       </c>
       <c r="K76" s="3">
         <v>-1000</v>
       </c>
       <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N76" s="3">
         <v>-1200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-300</v>
       </c>
-      <c r="Q76" s="3">
-        <v>100</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
+        <v>100</v>
+      </c>
+      <c r="T76" s="3">
         <v>-500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-800</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>-800</v>
-      </c>
-      <c r="Z76" s="3">
-        <v>-700</v>
       </c>
       <c r="AA76" s="3">
         <v>-800</v>
       </c>
       <c r="AB76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AC76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="AD76" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6195,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F81" s="3">
         <v>800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-27000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-5200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-9200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-6600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-2700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-5400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-4000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-100</v>
       </c>
-      <c r="Z81" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC81" s="3">
         <v>-200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6408,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6027,11 +6424,11 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>4</v>
@@ -6042,11 +6439,11 @@
       <c r="K83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -6093,8 +6490,14 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6920,100 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E89" s="3">
         <v>-200</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-400</v>
       </c>
       <c r="H89" s="3">
         <v>-200</v>
       </c>
       <c r="I89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-1300</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-300</v>
       </c>
       <c r="V89" s="3">
         <v>-300</v>
       </c>
       <c r="W89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,43 +7042,45 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
@@ -6653,11 +7094,11 @@
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -6683,8 +7124,14 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7296,14 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6876,28 +7335,28 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
@@ -6923,8 +7382,14 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7500,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,88 +7758,100 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
         <v>200</v>
       </c>
       <c r="H100" s="3">
+        <v>200</v>
+      </c>
+      <c r="I100" s="3">
+        <v>200</v>
+      </c>
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>1800</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>1100</v>
-      </c>
       <c r="R100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S100" s="3">
         <v>1100</v>
       </c>
       <c r="T100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U100" s="3">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="V100" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="W100" s="3">
         <v>500</v>
       </c>
       <c r="X100" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z100" s="3">
         <v>200</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z100" s="3">
-        <v>100</v>
-      </c>
       <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC100" s="3">
         <v>200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,37 +7930,43 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
+        <v>100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
@@ -7475,42 +7978,48 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>500</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>200</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
-      <c r="W102" s="3">
-        <v>100</v>
-      </c>
       <c r="X102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA102" s="3">
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UEEC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UEEC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
   <si>
     <t>UEEC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,130 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -852,25 +856,28 @@
         <v>0</v>
       </c>
       <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
         <v>300</v>
       </c>
-      <c r="Z8" s="3">
-        <v>100</v>
-      </c>
       <c r="AA8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="3">
         <v>200</v>
       </c>
       <c r="AD8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -880,11 +887,11 @@
       <c r="E9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
@@ -898,14 +905,14 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
@@ -916,17 +923,17 @@
       <c r="Q9" s="3">
         <v>0</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U9" s="3">
-        <v>0</v>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V9" s="3">
         <v>0</v>
@@ -950,13 +957,16 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -966,11 +976,11 @@
       <c r="E10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
@@ -984,14 +994,14 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O10" s="3">
         <v>0</v>
@@ -1002,17 +1012,17 @@
       <c r="Q10" s="3">
         <v>0</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U10" s="3">
-        <v>0</v>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V10" s="3">
         <v>0</v>
@@ -1024,25 +1034,28 @@
         <v>0</v>
       </c>
       <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
         <v>300</v>
       </c>
-      <c r="Z10" s="3">
-        <v>100</v>
-      </c>
       <c r="AA10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="3">
         <v>200</v>
       </c>
-      <c r="AC10" s="3">
-        <v>100</v>
-      </c>
       <c r="AD10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,13 +1086,14 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3">
         <v>200</v>
@@ -1088,7 +1102,7 @@
         <v>200</v>
       </c>
       <c r="G12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H12" s="3">
         <v>100</v>
@@ -1097,43 +1111,43 @@
         <v>100</v>
       </c>
       <c r="J12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L12" s="3">
         <v>100</v>
       </c>
       <c r="M12" s="3">
+        <v>100</v>
+      </c>
+      <c r="N12" s="3">
         <v>200</v>
       </c>
-      <c r="N12" s="3">
-        <v>100</v>
-      </c>
       <c r="O12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P12" s="3">
         <v>0</v>
       </c>
       <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
         <v>700</v>
       </c>
-      <c r="R12" s="3">
-        <v>100</v>
-      </c>
       <c r="S12" s="3">
+        <v>100</v>
+      </c>
+      <c r="T12" s="3">
         <v>200</v>
       </c>
-      <c r="T12" s="3">
-        <v>0</v>
-      </c>
       <c r="U12" s="3">
-        <v>100</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="V12" s="3">
+        <v>100</v>
       </c>
       <c r="W12" s="3" t="s">
         <v>4</v>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,32 +1262,35 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
         <v>100</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>400</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
@@ -1278,19 +1298,19 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>300</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1302,23 +1322,23 @@
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>3500</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>3600</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>200</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1331,8 +1351,11 @@
       <c r="AD14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,79 +1472,80 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1100</v>
-      </c>
-      <c r="E17" s="3">
-        <v>600</v>
       </c>
       <c r="F17" s="3">
         <v>600</v>
       </c>
       <c r="G17" s="3">
+        <v>600</v>
+      </c>
+      <c r="H17" s="3">
         <v>900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>26700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9100</v>
-      </c>
-      <c r="O17" s="3">
-        <v>600</v>
       </c>
       <c r="P17" s="3">
         <v>600</v>
       </c>
       <c r="Q17" s="3">
+        <v>600</v>
+      </c>
+      <c r="R17" s="3">
         <v>6100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1000</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>200</v>
       </c>
       <c r="AA17" s="3">
         <v>200</v>
@@ -1527,13 +1554,16 @@
         <v>200</v>
       </c>
       <c r="AC17" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD17" s="3">
         <v>300</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1541,85 +1571,88 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-600</v>
+        <v>-1100</v>
       </c>
       <c r="F18" s="3">
         <v>-600</v>
       </c>
       <c r="G18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H18" s="3">
         <v>-900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-26700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-9100</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-600</v>
       </c>
       <c r="P18" s="3">
         <v>-600</v>
       </c>
       <c r="Q18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R18" s="3">
         <v>-6100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-5400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-200</v>
       </c>
-      <c r="AB18" s="3">
-        <v>0</v>
-      </c>
       <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="3">
         <v>-100</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,8 +1683,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1662,11 +1696,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>1400</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1680,11 +1714,11 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1736,8 +1770,11 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1745,38 +1782,38 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-26400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-4800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-9100</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1822,8 +1859,11 @@
       <c r="AD21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1852,32 +1892,32 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>400</v>
       </c>
-      <c r="N22" s="3">
-        <v>100</v>
-      </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>500</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>200</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
@@ -1908,94 +1948,100 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-27000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-9200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-6600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-5400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-700</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>-100</v>
       </c>
       <c r="AA23" s="3">
         <v>-100</v>
       </c>
       <c r="AB23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AC23" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="AD23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-27000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-9200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-6600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-5400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-700</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>-100</v>
       </c>
       <c r="AA26" s="3">
         <v>-100</v>
       </c>
       <c r="AB26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AC26" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="AD26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-27000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-6600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-5400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-700</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>-100</v>
       </c>
       <c r="AA27" s="3">
         <v>-100</v>
       </c>
       <c r="AB27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AC27" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="AD27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,8 +2749,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2694,11 +2764,11 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1400</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2712,11 +2782,11 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2768,94 +2838,100 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-27000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-6600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-5400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-700</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>-100</v>
       </c>
       <c r="AA33" s="3">
         <v>-100</v>
       </c>
       <c r="AB33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AC33" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="AD33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-27000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-6600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-5400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-700</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>-100</v>
       </c>
       <c r="AA35" s="3">
         <v>-100</v>
       </c>
       <c r="AB35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AC35" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="AD35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,22 +3267,23 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -3205,17 +3292,17 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
@@ -3229,34 +3316,34 @@
         <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
         <v>500</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
       <c r="V41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W41" s="3">
+        <v>100</v>
+      </c>
+      <c r="X41" s="3">
         <v>300</v>
-      </c>
-      <c r="X41" s="3">
-        <v>200</v>
       </c>
       <c r="Y41" s="3">
         <v>200</v>
       </c>
       <c r="Z41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB41" s="3">
         <v>0</v>
@@ -3267,8 +3354,11 @@
       <c r="AD41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,8 +3443,11 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3379,14 +3472,14 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L43" s="3">
-        <v>100</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3">
+        <v>100</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
@@ -3394,8 +3487,8 @@
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -3413,19 +3506,19 @@
         <v>0</v>
       </c>
       <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
         <v>400</v>
-      </c>
-      <c r="W43" s="3">
-        <v>500</v>
       </c>
       <c r="X43" s="3">
         <v>500</v>
       </c>
       <c r="Y43" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z43" s="3">
         <v>400</v>
-      </c>
-      <c r="Z43" s="3">
-        <v>200</v>
       </c>
       <c r="AA43" s="3">
         <v>200</v>
@@ -3434,13 +3527,16 @@
         <v>200</v>
       </c>
       <c r="AC43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AD43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3453,17 +3549,17 @@
       <c r="F44" s="3">
         <v>0</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
+      <c r="G44" s="3">
+        <v>0</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I44" s="3">
-        <v>0</v>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K44" s="3">
         <v>100</v>
@@ -3499,7 +3595,7 @@
         <v>100</v>
       </c>
       <c r="V44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W44" s="3">
         <v>200</v>
@@ -3511,7 +3607,7 @@
         <v>200</v>
       </c>
       <c r="Z44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA44" s="3">
         <v>100</v>
@@ -3523,10 +3619,13 @@
         <v>100</v>
       </c>
       <c r="AD44" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE44" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3557,11 +3656,11 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -3572,8 +3671,8 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
+      <c r="R45" s="3">
+        <v>0</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>4</v>
@@ -3581,11 +3680,11 @@
       <c r="T45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U45" s="3">
-        <v>100</v>
+      <c r="U45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
@@ -3596,8 +3695,8 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>4</v>
+      <c r="Z45" s="3">
+        <v>0</v>
       </c>
       <c r="AA45" s="3" t="s">
         <v>4</v>
@@ -3605,29 +3704,32 @@
       <c r="AB45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC45" s="3">
-        <v>0</v>
+      <c r="AC45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
       </c>
       <c r="F46" s="3">
+        <v>100</v>
+      </c>
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
@@ -3635,17 +3737,17 @@
         <v>0</v>
       </c>
       <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
-        <v>100</v>
-      </c>
       <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
-        <v>100</v>
-      </c>
       <c r="N46" s="3">
         <v>100</v>
       </c>
@@ -3659,31 +3761,31 @@
         <v>100</v>
       </c>
       <c r="R46" s="3">
+        <v>100</v>
+      </c>
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>600</v>
       </c>
-      <c r="T46" s="3">
-        <v>100</v>
-      </c>
       <c r="U46" s="3">
         <v>100</v>
       </c>
       <c r="V46" s="3">
+        <v>100</v>
+      </c>
+      <c r="W46" s="3">
         <v>600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>900</v>
-      </c>
-      <c r="X46" s="3">
-        <v>800</v>
       </c>
       <c r="Y46" s="3">
         <v>800</v>
       </c>
       <c r="Z46" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="AA46" s="3">
         <v>300</v>
@@ -3692,13 +3794,16 @@
         <v>300</v>
       </c>
       <c r="AC46" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD46" s="3">
         <v>200</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,13 +3888,16 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
+      <c r="D48" s="3">
+        <v>100</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>4</v>
@@ -3803,11 +3911,11 @@
       <c r="H48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I48" s="3">
-        <v>0</v>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
@@ -3824,8 +3932,8 @@
       <c r="O48" s="3">
         <v>100</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
+      <c r="P48" s="3">
+        <v>100</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>4</v>
@@ -3842,8 +3950,8 @@
       <c r="U48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V48" s="3">
-        <v>0</v>
+      <c r="V48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W48" s="3">
         <v>0</v>
@@ -3869,8 +3977,11 @@
       <c r="AD48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3889,8 +4000,8 @@
       <c r="H49" s="3">
         <v>0</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
+      <c r="I49" s="3">
+        <v>0</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
@@ -3904,8 +4015,8 @@
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,23 +4244,26 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
         <v>200</v>
       </c>
       <c r="F52" s="3">
+        <v>200</v>
+      </c>
+      <c r="G52" s="3">
         <v>300</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>4</v>
       </c>
@@ -4159,8 +4279,8 @@
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,40 +4422,43 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>400</v>
+      </c>
+      <c r="E54" s="3">
         <v>300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>500</v>
       </c>
-      <c r="G54" s="3">
-        <v>100</v>
-      </c>
       <c r="H54" s="3">
         <v>100</v>
       </c>
       <c r="I54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
         <v>300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>400</v>
-      </c>
-      <c r="M54" s="3">
-        <v>200</v>
       </c>
       <c r="N54" s="3">
         <v>200</v>
@@ -4341,37 +4467,37 @@
         <v>200</v>
       </c>
       <c r="P54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q54" s="3">
         <v>100</v>
       </c>
       <c r="R54" s="3">
+        <v>100</v>
+      </c>
+      <c r="S54" s="3">
         <v>200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>600</v>
       </c>
-      <c r="T54" s="3">
-        <v>100</v>
-      </c>
       <c r="U54" s="3">
         <v>100</v>
       </c>
       <c r="V54" s="3">
+        <v>100</v>
+      </c>
+      <c r="W54" s="3">
         <v>600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>900</v>
-      </c>
-      <c r="X54" s="3">
-        <v>800</v>
       </c>
       <c r="Y54" s="3">
         <v>800</v>
       </c>
       <c r="Z54" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="AA54" s="3">
         <v>300</v>
@@ -4380,13 +4506,16 @@
         <v>300</v>
       </c>
       <c r="AC54" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD54" s="3">
         <v>200</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,58 +4579,59 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
         <v>1200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1000</v>
-      </c>
-      <c r="I57" s="3">
-        <v>800</v>
       </c>
       <c r="J57" s="3">
         <v>800</v>
       </c>
       <c r="K57" s="3">
+        <v>800</v>
+      </c>
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
-      </c>
-      <c r="N57" s="3">
-        <v>700</v>
       </c>
       <c r="O57" s="3">
         <v>700</v>
       </c>
       <c r="P57" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q57" s="3">
         <v>500</v>
       </c>
       <c r="R57" s="3">
+        <v>500</v>
+      </c>
+      <c r="S57" s="3">
         <v>300</v>
-      </c>
-      <c r="S57" s="3">
-        <v>200</v>
       </c>
       <c r="T57" s="3">
         <v>200</v>
@@ -4509,7 +4640,7 @@
         <v>200</v>
       </c>
       <c r="V57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W57" s="3">
         <v>300</v>
@@ -4521,7 +4652,7 @@
         <v>300</v>
       </c>
       <c r="Z57" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AA57" s="3">
         <v>500</v>
@@ -4533,10 +4664,13 @@
         <v>500</v>
       </c>
       <c r="AD57" s="3">
+        <v>500</v>
+      </c>
+      <c r="AE57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4547,20 +4681,20 @@
         <v>700</v>
       </c>
       <c r="F58" s="3">
+        <v>700</v>
+      </c>
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
@@ -4568,34 +4702,34 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>600</v>
       </c>
       <c r="O58" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="P58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>400</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
       <c r="T58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U58" s="3">
         <v>100</v>
       </c>
       <c r="V58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W58" s="3">
         <v>200</v>
@@ -4604,57 +4738,60 @@
         <v>200</v>
       </c>
       <c r="Y58" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="Z58" s="3">
         <v>500</v>
       </c>
       <c r="AA58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AB58" s="3">
         <v>400</v>
       </c>
       <c r="AC58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AD58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>300</v>
+      </c>
+      <c r="E59" s="3">
         <v>400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
-        <v>100</v>
-      </c>
       <c r="J59" s="3">
+        <v>100</v>
+      </c>
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="L59" s="3">
-        <v>100</v>
-      </c>
       <c r="M59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N59" s="3">
         <v>200</v>
@@ -4666,35 +4803,35 @@
         <v>200</v>
       </c>
       <c r="Q59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R59" s="3">
+        <v>100</v>
+      </c>
+      <c r="S59" s="3">
         <v>200</v>
-      </c>
-      <c r="S59" s="3">
-        <v>300</v>
       </c>
       <c r="T59" s="3">
         <v>300</v>
       </c>
       <c r="U59" s="3">
+        <v>300</v>
+      </c>
+      <c r="V59" s="3">
         <v>200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>300</v>
       </c>
-      <c r="Z59" s="3">
-        <v>100</v>
-      </c>
       <c r="AA59" s="3">
         <v>100</v>
       </c>
@@ -4707,28 +4844,31 @@
       <c r="AD59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E60" s="3">
         <v>2300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2100</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1200</v>
       </c>
       <c r="J60" s="3">
         <v>1200</v>
@@ -4737,46 +4877,46 @@
         <v>1200</v>
       </c>
       <c r="L60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M60" s="3">
         <v>400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1000</v>
-      </c>
-      <c r="R60" s="3">
-        <v>500</v>
       </c>
       <c r="S60" s="3">
         <v>500</v>
       </c>
       <c r="T60" s="3">
+        <v>500</v>
+      </c>
+      <c r="U60" s="3">
         <v>600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>900</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>1100</v>
       </c>
       <c r="Z60" s="3">
         <v>1100</v>
@@ -4785,16 +4925,19 @@
         <v>1100</v>
       </c>
       <c r="AB60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AC60" s="3">
         <v>1000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>900</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4805,11 +4948,11 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>600</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -4879,31 +5022,34 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,28 +5378,31 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E66" s="3">
         <v>2300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2100</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1200</v>
       </c>
       <c r="J66" s="3">
         <v>1200</v>
@@ -5253,46 +5411,46 @@
         <v>1200</v>
       </c>
       <c r="L66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M66" s="3">
         <v>400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1000</v>
-      </c>
-      <c r="R66" s="3">
-        <v>500</v>
       </c>
       <c r="S66" s="3">
         <v>500</v>
       </c>
       <c r="T66" s="3">
+        <v>500</v>
+      </c>
+      <c r="U66" s="3">
         <v>600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>900</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>1100</v>
       </c>
       <c r="Z66" s="3">
         <v>1100</v>
@@ -5301,16 +5459,19 @@
         <v>1100</v>
       </c>
       <c r="AB66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AC66" s="3">
         <v>1000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>900</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-75700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-75200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-74100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-73400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-74200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-73400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-72400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-70900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-70200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-68900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-41800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-36700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-27400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-26800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-26100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-23900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-23400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-22700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-19500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-19000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-18600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-17700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-13700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-13000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-12900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-12700</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-12800</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1000</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
       <c r="M76" s="3">
+        <v>0</v>
+      </c>
+      <c r="N76" s="3">
         <v>-1000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-300</v>
       </c>
-      <c r="S76" s="3">
-        <v>100</v>
-      </c>
       <c r="T76" s="3">
+        <v>100</v>
+      </c>
+      <c r="U76" s="3">
         <v>-500</v>
-      </c>
-      <c r="U76" s="3">
-        <v>-200</v>
       </c>
       <c r="V76" s="3">
         <v>-200</v>
       </c>
       <c r="W76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X76" s="3">
         <v>200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-300</v>
-      </c>
-      <c r="Z76" s="3">
-        <v>-800</v>
       </c>
       <c r="AA76" s="3">
         <v>-800</v>
       </c>
       <c r="AB76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="AC76" s="3">
         <v>-700</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-800</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-27000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-6600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-5400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-700</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>-100</v>
       </c>
       <c r="AA81" s="3">
         <v>-100</v>
       </c>
       <c r="AB81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AC81" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="AD81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6430,8 +6629,8 @@
       <c r="H83" s="3">
         <v>0</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>4</v>
@@ -6445,8 +6644,8 @@
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,8 +7140,11 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6935,58 +7152,58 @@
         <v>-500</v>
       </c>
       <c r="E89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>-200</v>
       </c>
       <c r="I89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J89" s="3">
         <v>-400</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-200</v>
       </c>
       <c r="K89" s="3">
         <v>-200</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1300</v>
-      </c>
-      <c r="V89" s="3">
-        <v>-300</v>
       </c>
       <c r="W89" s="3">
         <v>-300</v>
@@ -6995,25 +7212,28 @@
         <v>-300</v>
       </c>
       <c r="Y89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-200</v>
-      </c>
-      <c r="AA89" s="3">
-        <v>-100</v>
       </c>
       <c r="AB89" s="3">
         <v>-100</v>
       </c>
       <c r="AC89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="AD89" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7070,20 +7291,20 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
@@ -7100,8 +7321,8 @@
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -7130,8 +7351,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,8 +7529,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7341,16 +7571,16 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>4</v>
@@ -7358,8 +7588,8 @@
       <c r="T94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
+      <c r="U94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
@@ -7388,8 +7618,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,8 +8007,11 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7773,13 +8019,13 @@
         <v>600</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
         <v>200</v>
@@ -7788,70 +8034,73 @@
         <v>200</v>
       </c>
       <c r="J100" s="3">
+        <v>200</v>
+      </c>
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>200</v>
       </c>
       <c r="N100" s="3">
+        <v>200</v>
+      </c>
+      <c r="O100" s="3">
         <v>300</v>
-      </c>
-      <c r="O100" s="3">
-        <v>500</v>
       </c>
       <c r="P100" s="3">
         <v>500</v>
       </c>
       <c r="Q100" s="3">
+        <v>500</v>
+      </c>
+      <c r="R100" s="3">
         <v>1800</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>1100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1100</v>
       </c>
-      <c r="V100" s="3">
-        <v>100</v>
-      </c>
       <c r="W100" s="3">
+        <v>100</v>
+      </c>
+      <c r="X100" s="3">
         <v>500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>200</v>
       </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
       <c r="AB100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AD100" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,40 +8185,43 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
       <c r="K102" s="3">
+        <v>100</v>
+      </c>
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
@@ -7984,34 +8236,34 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>500</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="V102" s="3">
         <v>-200</v>
       </c>
       <c r="W102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X102" s="3">
         <v>200</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z102" s="3">
         <v>100</v>
       </c>
       <c r="AA102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB102" s="3">
         <v>0</v>
@@ -8020,6 +8272,9 @@
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>
